--- a/Sprint 6/Sprint_6 Burndown-Backlog.xlsx
+++ b/Sprint 6/Sprint_6 Burndown-Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSI\4-Periodo\PDS\SistemaC\SistemaC\Sprint 6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Izaquiel\Desktop\PDS\Sprint 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650" tabRatio="990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650" tabRatio="990" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Backlog" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="57">
   <si>
     <t>SPRINT BACKLOG</t>
   </si>
@@ -127,35 +127,7 @@
     <t>Módulo Agendamento</t>
   </si>
   <si>
-    <t>Terça
-11/10/2016</t>
-  </si>
-  <si>
     <t>Reajuste de código</t>
-  </si>
-  <si>
-    <t>Quarta
-12/10/2016</t>
-  </si>
-  <si>
-    <t>Quinta
-13/10/2016</t>
-  </si>
-  <si>
-    <t>Sexta
-14/10/2016</t>
-  </si>
-  <si>
-    <t>Sábado
-15/10/2016</t>
-  </si>
-  <si>
-    <t>Domingo
-16/10/2016</t>
-  </si>
-  <si>
-    <t>Segunda
-17/10/2016</t>
   </si>
   <si>
     <t>Terça
@@ -208,6 +180,34 @@
   </si>
   <si>
     <t>Estudo da funcionalidade</t>
+  </si>
+  <si>
+    <t>Quarta
+19/10/2016</t>
+  </si>
+  <si>
+    <t>Quinta
+20/10/2016</t>
+  </si>
+  <si>
+    <t>Sexta
+21/10/2016</t>
+  </si>
+  <si>
+    <t>Sábado
+22/10/2016</t>
+  </si>
+  <si>
+    <t>Domingo
+23/10/2016</t>
+  </si>
+  <si>
+    <t>Segunda
+24/10/2016</t>
+  </si>
+  <si>
+    <t>Terça
+25/10/2016</t>
   </si>
 </sst>
 </file>
@@ -597,13 +597,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -626,6 +626,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -676,9 +679,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2599,35 +2599,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-11/10/2016</c:v>
+18/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-12/10/2016</c:v>
+19/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-13/10/2016</c:v>
+20/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-14/10/2016</c:v>
+21/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-15/10/2016</c:v>
+22/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-16/10/2016</c:v>
+23/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-17/10/2016</c:v>
+24/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-18/10/2016</c:v>
+25/10/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2732,35 +2732,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-11/10/2016</c:v>
+18/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-12/10/2016</c:v>
+19/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-13/10/2016</c:v>
+20/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-14/10/2016</c:v>
+21/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-15/10/2016</c:v>
+22/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-16/10/2016</c:v>
+23/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-17/10/2016</c:v>
+24/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-18/10/2016</c:v>
+25/10/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2787,16 +2787,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-14.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-25.7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-25.7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-35.9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2824,11 +2824,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="196585208"/>
-        <c:axId val="195836920"/>
+        <c:axId val="385501200"/>
+        <c:axId val="385506296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="196585208"/>
+        <c:axId val="385501200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2909,7 +2909,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195836920"/>
+        <c:crossAx val="385506296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2917,7 +2917,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195836920"/>
+        <c:axId val="385506296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2968,6 +2968,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2999,7 +3000,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196585208"/>
+        <c:crossAx val="385501200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3012,6 +3013,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3108,35 +3110,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-11/10/2016</c:v>
+18/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-12/10/2016</c:v>
+19/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-13/10/2016</c:v>
+20/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-14/10/2016</c:v>
+21/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-15/10/2016</c:v>
+22/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-16/10/2016</c:v>
+23/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-17/10/2016</c:v>
+24/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-18/10/2016</c:v>
+25/10/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3241,35 +3243,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-11/10/2016</c:v>
+18/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-12/10/2016</c:v>
+19/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-13/10/2016</c:v>
+20/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-14/10/2016</c:v>
+21/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-15/10/2016</c:v>
+22/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-16/10/2016</c:v>
+23/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-17/10/2016</c:v>
+24/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-18/10/2016</c:v>
+25/10/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3296,16 +3298,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-7.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-7.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-12.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3333,11 +3335,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="195875216"/>
-        <c:axId val="197134248"/>
+        <c:axId val="385507472"/>
+        <c:axId val="385505512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="195875216"/>
+        <c:axId val="385507472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3379,6 +3381,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3410,7 +3413,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197134248"/>
+        <c:crossAx val="385505512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3418,7 +3421,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197134248"/>
+        <c:axId val="385505512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3469,6 +3472,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3500,7 +3504,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195875216"/>
+        <c:crossAx val="385507472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3513,6 +3517,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3609,35 +3614,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-11/10/2016</c:v>
+18/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-12/10/2016</c:v>
+19/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-13/10/2016</c:v>
+20/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-14/10/2016</c:v>
+21/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-15/10/2016</c:v>
+22/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-16/10/2016</c:v>
+23/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-17/10/2016</c:v>
+24/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-18/10/2016</c:v>
+25/10/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3742,35 +3747,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-11/10/2016</c:v>
+18/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-12/10/2016</c:v>
+19/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-13/10/2016</c:v>
+20/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-14/10/2016</c:v>
+21/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-15/10/2016</c:v>
+22/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-16/10/2016</c:v>
+23/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-17/10/2016</c:v>
+24/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-18/10/2016</c:v>
+25/10/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3797,16 +3802,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-9.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-11.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3834,11 +3839,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="196015240"/>
-        <c:axId val="195859376"/>
+        <c:axId val="385507864"/>
+        <c:axId val="385501984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="196015240"/>
+        <c:axId val="385507864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3880,6 +3885,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3911,7 +3917,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195859376"/>
+        <c:crossAx val="385501984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3919,7 +3925,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195859376"/>
+        <c:axId val="385501984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3970,6 +3976,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4001,7 +4008,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196015240"/>
+        <c:crossAx val="385507864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4014,6 +4021,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4110,35 +4118,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-11/10/2016</c:v>
+18/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-12/10/2016</c:v>
+19/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-13/10/2016</c:v>
+20/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-14/10/2016</c:v>
+21/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-15/10/2016</c:v>
+22/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-16/10/2016</c:v>
+23/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-17/10/2016</c:v>
+24/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-18/10/2016</c:v>
+25/10/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4243,35 +4251,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-11/10/2016</c:v>
+18/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-12/10/2016</c:v>
+19/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-13/10/2016</c:v>
+20/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-14/10/2016</c:v>
+21/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-15/10/2016</c:v>
+22/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-16/10/2016</c:v>
+23/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-17/10/2016</c:v>
+24/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-18/10/2016</c:v>
+25/10/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4298,16 +4306,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-8.6999999999999993</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-8.6999999999999993</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-11.899999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4335,11 +4343,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="196767208"/>
-        <c:axId val="195864080"/>
+        <c:axId val="385501592"/>
+        <c:axId val="385504728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="196767208"/>
+        <c:axId val="385501592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4381,6 +4389,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4412,7 +4421,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195864080"/>
+        <c:crossAx val="385504728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4420,7 +4429,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195864080"/>
+        <c:axId val="385504728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4471,6 +4480,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4502,7 +4512,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196767208"/>
+        <c:crossAx val="385501592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4515,6 +4525,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4983,8 +4994,8 @@
   </sheetPr>
   <dimension ref="A1:AB1048575"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView windowProtection="1" showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5117,11 +5128,11 @@
       <c r="AB3" s="4"/>
     </row>
     <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
-        <v>43</v>
+      <c r="A4" s="36" t="s">
+        <v>36</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
@@ -5135,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I4" s="22"/>
       <c r="J4" s="3"/>
@@ -5159,9 +5170,9 @@
       <c r="AB4" s="4"/>
     </row>
     <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="62"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
@@ -5193,7 +5204,7 @@
     <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="38"/>
       <c r="B6" s="24" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -5201,7 +5212,7 @@
       <c r="F6" s="30"/>
       <c r="G6" s="40"/>
       <c r="H6" s="28" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I6" s="22"/>
       <c r="J6" s="3"/>
@@ -5226,10 +5237,10 @@
     </row>
     <row r="7" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="31"/>
@@ -5237,7 +5248,7 @@
       <c r="F7" s="31"/>
       <c r="G7" s="40"/>
       <c r="H7" s="28" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -5259,9 +5270,9 @@
       <c r="AB7" s="4"/>
     </row>
     <row r="8" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="24" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="20"/>
@@ -5269,7 +5280,7 @@
       <c r="F8" s="20"/>
       <c r="G8" s="40"/>
       <c r="H8" s="28" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -5291,9 +5302,9 @@
       <c r="AB8" s="4"/>
     </row>
     <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="25" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="20"/>
@@ -5301,7 +5312,7 @@
       <c r="F9" s="20"/>
       <c r="G9" s="40"/>
       <c r="H9" s="28" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I9" s="6"/>
       <c r="K9" s="4"/>
@@ -5324,9 +5335,9 @@
       <c r="AB9" s="4"/>
     </row>
     <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="26" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
@@ -5334,7 +5345,7 @@
       <c r="F10" s="20"/>
       <c r="G10" s="40"/>
       <c r="H10" s="28" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I10" s="6"/>
       <c r="K10" s="4"/>
@@ -5358,10 +5369,10 @@
     </row>
     <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="34" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -5390,9 +5401,9 @@
       <c r="AB11" s="4"/>
     </row>
     <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="26" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
@@ -5400,7 +5411,7 @@
       <c r="F12" s="20"/>
       <c r="G12" s="40"/>
       <c r="H12" s="28" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I12" s="6"/>
       <c r="K12" s="4"/>
@@ -5424,18 +5435,20 @@
     </row>
     <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="34" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="20"/>
+        <v>49</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="43"/>
       <c r="F13" s="20"/>
       <c r="G13" s="40"/>
       <c r="H13" s="28" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I13" s="6"/>
       <c r="K13" s="4"/>
@@ -5458,17 +5471,19 @@
       <c r="AB13" s="4"/>
     </row>
     <row r="14" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="36"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="20"/>
+        <v>48</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="44"/>
       <c r="F14" s="20"/>
       <c r="G14" s="41"/>
       <c r="H14" s="28" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I14" s="6"/>
       <c r="K14" s="4"/>
@@ -5749,6 +5764,13 @@
     <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A4:A6"/>
@@ -5756,13 +5778,6 @@
     <mergeCell ref="E4:E14"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:I6">
     <cfRule type="expression" dxfId="125" priority="2">
@@ -5786,7 +5801,7 @@
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5807,20 +5822,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="46"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46" t="s">
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -5879,40 +5894,40 @@
       <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47">
+      <c r="A3" s="48">
         <v>8</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="48" t="s">
+      <c r="C3" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="49" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="7"/>
@@ -5924,18 +5939,18 @@
       <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -6026,27 +6041,27 @@
       </c>
       <c r="G6" s="13">
         <f t="shared" si="2"/>
-        <v>-14.2</v>
+        <v>0</v>
       </c>
       <c r="H6" s="13">
         <f t="shared" si="2"/>
-        <v>-25.7</v>
+        <v>0</v>
       </c>
       <c r="I6" s="13">
         <f t="shared" si="2"/>
-        <v>-25.7</v>
+        <v>0</v>
       </c>
       <c r="J6" s="13">
         <f t="shared" si="2"/>
-        <v>-35.9</v>
+        <v>0</v>
       </c>
       <c r="K6" s="13">
         <f>SUM(C6:J6)</f>
-        <v>-101.5</v>
+        <v>0</v>
       </c>
       <c r="L6" s="13">
         <f>K6/A$3</f>
-        <v>-12.6875</v>
+        <v>0</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -6084,18 +6099,18 @@
       <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -6130,11 +6145,11 @@
       </c>
       <c r="G9" s="16">
         <f t="shared" si="3"/>
-        <v>14.2</v>
+        <v>0</v>
       </c>
       <c r="H9" s="16">
         <f t="shared" si="3"/>
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="I9" s="16">
         <f t="shared" si="3"/>
@@ -6142,15 +6157,15 @@
       </c>
       <c r="J9" s="16">
         <f t="shared" si="3"/>
-        <v>10.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="K9" s="16">
         <f t="shared" si="3"/>
-        <v>35.9</v>
+        <v>0</v>
       </c>
       <c r="L9" s="16">
         <f>K9/A$3</f>
-        <v>4.4874999999999998</v>
+        <v>0</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -6183,25 +6198,25 @@
         <v>0</v>
       </c>
       <c r="G10" s="13">
-        <v>4.25</v>
+        <v>0</v>
       </c>
       <c r="H10" s="13">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="I10" s="13">
         <f>Diogo!I9</f>
         <v>0</v>
       </c>
       <c r="J10" s="13">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="K10" s="13">
         <f>SUM(C10:J10)</f>
-        <v>12.25</v>
+        <v>0</v>
       </c>
       <c r="L10" s="13">
         <f>K10/A$3</f>
-        <v>1.53125</v>
+        <v>0</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
@@ -6233,24 +6248,24 @@
         <v>0</v>
       </c>
       <c r="G11" s="13">
-        <v>5.75</v>
+        <v>0</v>
       </c>
       <c r="H11" s="13">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="I11" s="13">
         <v>0</v>
       </c>
       <c r="J11" s="13">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="K11" s="13">
         <f>SUM(C11:J11)</f>
-        <v>11.75</v>
+        <v>0</v>
       </c>
       <c r="L11" s="13">
         <f>K11/A$3</f>
-        <v>1.46875</v>
+        <v>0</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
@@ -6283,24 +6298,24 @@
         <v>0</v>
       </c>
       <c r="G12" s="13">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="H12" s="13">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="I12" s="13">
         <v>0</v>
       </c>
       <c r="J12" s="13">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="K12" s="13">
         <f>SUM(C12:J12)</f>
-        <v>11.899999999999999</v>
+        <v>0</v>
       </c>
       <c r="L12" s="13">
         <f>K12/A$3</f>
-        <v>1.4874999999999998</v>
+        <v>0</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -6838,7 +6853,7 @@
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6852,20 +6867,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="46"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46" t="s">
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -6924,40 +6939,40 @@
       <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47">
+      <c r="A3" s="48">
         <v>8</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="48" t="s">
+      <c r="C3" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="49" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="7"/>
@@ -6969,18 +6984,18 @@
       <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -7071,27 +7086,27 @@
       </c>
       <c r="G6" s="13">
         <f t="shared" si="2"/>
-        <v>-4.25</v>
+        <v>0</v>
       </c>
       <c r="H6" s="13">
         <f t="shared" si="2"/>
-        <v>-7.75</v>
+        <v>0</v>
       </c>
       <c r="I6" s="13">
         <f t="shared" si="2"/>
-        <v>-7.75</v>
+        <v>0</v>
       </c>
       <c r="J6" s="13">
         <f t="shared" si="2"/>
-        <v>-12.25</v>
+        <v>0</v>
       </c>
       <c r="K6" s="13">
         <f>SUM(C6:J6)</f>
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="L6" s="13">
         <f>K6/A$3</f>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -7129,18 +7144,18 @@
       <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -7175,11 +7190,11 @@
       </c>
       <c r="G9" s="16">
         <f t="shared" si="3"/>
-        <v>4.25</v>
+        <v>0</v>
       </c>
       <c r="H9" s="16">
         <f t="shared" si="3"/>
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="I9" s="16">
         <f t="shared" si="3"/>
@@ -7187,15 +7202,15 @@
       </c>
       <c r="J9" s="16">
         <f t="shared" si="3"/>
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="K9" s="16">
         <f t="shared" si="3"/>
-        <v>12.25</v>
+        <v>0</v>
       </c>
       <c r="L9" s="16">
         <f t="shared" si="3"/>
-        <v>1.53125</v>
+        <v>0</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -7206,10 +7221,10 @@
       <c r="S9" s="7"/>
     </row>
     <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="58"/>
+      <c r="A10" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="59"/>
       <c r="C10" s="13">
         <v>0</v>
       </c>
@@ -7223,10 +7238,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="13">
-        <v>4.25</v>
+        <v>0</v>
       </c>
       <c r="H10" s="13">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="I10" s="13">
         <v>0</v>
@@ -7236,25 +7251,25 @@
       </c>
       <c r="K10" s="13">
         <f>SUM(C10:J10)</f>
-        <v>7.75</v>
+        <v>0</v>
       </c>
       <c r="L10" s="13">
         <f>K10/A$3</f>
-        <v>0.96875</v>
+        <v>0</v>
       </c>
       <c r="M10" s="7"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
     </row>
     <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="61"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="13">
         <v>0</v>
       </c>
@@ -7277,29 +7292,29 @@
         <v>0</v>
       </c>
       <c r="J11" s="13">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="K11" s="13">
         <f>SUM(C11:J11)</f>
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="L11" s="13">
         <f>K11/A$3</f>
-        <v>0.5625</v>
+        <v>0</v>
       </c>
       <c r="M11" s="7"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
     </row>
     <row r="12" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="55"/>
+      <c r="A12" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="56"/>
       <c r="C12" s="13">
         <v>0</v>
       </c>
@@ -7333,8 +7348,8 @@
         <v>0</v>
       </c>
       <c r="M12" s="7"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
@@ -7342,8 +7357,8 @@
     </row>
     <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -7354,14 +7369,6 @@
     <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="N11:O11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A4"/>
@@ -7376,6 +7383,14 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="N11:O11"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:L96 N10:O12 B13:C13">
     <cfRule type="expression" dxfId="24" priority="2">
@@ -7415,7 +7430,7 @@
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7429,20 +7444,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="46"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46" t="s">
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -7501,40 +7516,40 @@
       <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47">
+      <c r="A3" s="48">
         <v>8</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="48" t="s">
+      <c r="C3" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="49" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="7"/>
@@ -7546,18 +7561,18 @@
       <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -7648,27 +7663,27 @@
       </c>
       <c r="G6" s="13">
         <f t="shared" si="2"/>
-        <v>-5.75</v>
+        <v>0</v>
       </c>
       <c r="H6" s="13">
         <f t="shared" si="2"/>
-        <v>-9.25</v>
+        <v>0</v>
       </c>
       <c r="I6" s="13">
         <f t="shared" si="2"/>
-        <v>-9.25</v>
+        <v>0</v>
       </c>
       <c r="J6" s="13">
         <f t="shared" si="2"/>
-        <v>-11.75</v>
+        <v>0</v>
       </c>
       <c r="K6" s="13">
         <f>SUM(C6:J6)</f>
-        <v>-36</v>
+        <v>0</v>
       </c>
       <c r="L6" s="13">
         <f>K6/A$3</f>
-        <v>-4.5</v>
+        <v>0</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -7706,18 +7721,18 @@
       <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -7752,11 +7767,11 @@
       </c>
       <c r="G9" s="16">
         <f t="shared" si="3"/>
-        <v>5.75</v>
+        <v>0</v>
       </c>
       <c r="H9" s="16">
         <f t="shared" si="3"/>
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="I9" s="16">
         <f t="shared" si="3"/>
@@ -7764,15 +7779,15 @@
       </c>
       <c r="J9" s="16">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="K9" s="16">
         <f t="shared" si="3"/>
-        <v>11.75</v>
+        <v>0</v>
       </c>
       <c r="L9" s="16">
         <f t="shared" si="3"/>
-        <v>1.46875</v>
+        <v>0</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -7783,10 +7798,10 @@
       <c r="S9" s="7"/>
     </row>
     <row r="10" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="58"/>
+      <c r="A10" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="59"/>
       <c r="C10" s="21">
         <v>0</v>
       </c>
@@ -7828,10 +7843,10 @@
       <c r="S10" s="7"/>
     </row>
     <row r="11" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="61"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="21">
         <v>0</v>
       </c>
@@ -7845,10 +7860,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="21">
-        <v>5.75</v>
+        <v>0</v>
       </c>
       <c r="H11" s="21">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="I11" s="21">
         <v>0</v>
@@ -7858,11 +7873,11 @@
       </c>
       <c r="K11" s="21">
         <f>SUM(C11:J11)</f>
-        <v>9.25</v>
+        <v>0</v>
       </c>
       <c r="L11" s="21">
         <f>K11/A$3</f>
-        <v>1.15625</v>
+        <v>0</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
@@ -7873,10 +7888,10 @@
       <c r="S11" s="7"/>
     </row>
     <row r="12" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="55"/>
+      <c r="A12" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="56"/>
       <c r="C12" s="21">
         <v>0</v>
       </c>
@@ -7899,15 +7914,15 @@
         <v>0</v>
       </c>
       <c r="J12" s="21">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="K12" s="21">
         <f>SUM(C12:J12)</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="L12" s="21">
         <f>K12/A$3</f>
-        <v>0.3125</v>
+        <v>0</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -7932,6 +7947,8 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
@@ -7948,8 +7965,6 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:L96 K10:L12">
     <cfRule type="expression" dxfId="19" priority="14">
@@ -8010,9 +8025,9 @@
   </sheetPr>
   <dimension ref="A1:S1048576"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8026,20 +8041,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="46"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46" t="s">
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -8098,40 +8113,40 @@
       <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47">
+      <c r="A3" s="48">
         <v>8</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="48" t="s">
+      <c r="C3" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="49" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="7"/>
@@ -8143,18 +8158,18 @@
       <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -8245,27 +8260,27 @@
       </c>
       <c r="G6" s="13">
         <f t="shared" si="2"/>
-        <v>-4.2</v>
+        <v>0</v>
       </c>
       <c r="H6" s="13">
         <f t="shared" si="2"/>
-        <v>-8.6999999999999993</v>
+        <v>0</v>
       </c>
       <c r="I6" s="13">
         <f t="shared" si="2"/>
-        <v>-8.6999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J6" s="13">
         <f t="shared" si="2"/>
-        <v>-11.899999999999999</v>
+        <v>0</v>
       </c>
       <c r="K6" s="13">
         <f>SUM(C6:J6)</f>
-        <v>-33.5</v>
+        <v>0</v>
       </c>
       <c r="L6" s="13">
         <f>K6/A$3</f>
-        <v>-4.1875</v>
+        <v>0</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -8303,18 +8318,18 @@
       <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -8349,11 +8364,11 @@
       </c>
       <c r="G9" s="16">
         <f t="shared" si="3"/>
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="H9" s="16">
         <f t="shared" si="3"/>
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="I9" s="16">
         <f t="shared" si="3"/>
@@ -8361,15 +8376,15 @@
       </c>
       <c r="J9" s="16">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="K9" s="16">
         <f t="shared" si="3"/>
-        <v>11.899999999999999</v>
+        <v>0</v>
       </c>
       <c r="L9" s="16">
         <f t="shared" si="3"/>
-        <v>1.4874999999999998</v>
+        <v>0</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -8380,10 +8395,10 @@
       <c r="S9" s="7"/>
     </row>
     <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="58"/>
+      <c r="A10" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="59"/>
       <c r="C10" s="13">
         <v>0</v>
       </c>
@@ -8425,10 +8440,10 @@
       <c r="S10" s="7"/>
     </row>
     <row r="11" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="61"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="13">
         <v>0</v>
       </c>
@@ -8442,10 +8457,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="13">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="H11" s="13">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="I11" s="13">
         <v>0</v>
@@ -8455,11 +8470,11 @@
       </c>
       <c r="K11" s="13">
         <f>SUM(C11:J11)</f>
-        <v>8.6999999999999993</v>
+        <v>0</v>
       </c>
       <c r="L11" s="13">
         <f>K11/A$3</f>
-        <v>1.0874999999999999</v>
+        <v>0</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
@@ -8470,10 +8485,10 @@
       <c r="S11" s="7"/>
     </row>
     <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="55"/>
+      <c r="A12" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="56"/>
       <c r="C12" s="13">
         <v>0</v>
       </c>
@@ -8496,15 +8511,15 @@
         <v>0</v>
       </c>
       <c r="J12" s="13">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="K12" s="13">
         <f>SUM(C12:J12)</f>
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="L12" s="13">
         <f>K12/A$3</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -8529,6 +8544,8 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
@@ -8545,8 +8562,6 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:L96 K10:L12">
     <cfRule type="expression" dxfId="9" priority="12">

--- a/Sprint 6/Sprint_6 Burndown-Backlog.xlsx
+++ b/Sprint 6/Sprint_6 Burndown-Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Izaquiel\Desktop\PDS\Sprint 6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSI\4-Periodo\PDS\SistemaC\SistemaC\Sprint 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650" tabRatio="990" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Backlog" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="58">
   <si>
     <t>SPRINT BACKLOG</t>
   </si>
@@ -208,6 +208,9 @@
   <si>
     <t>Terça
 25/10/2016</t>
+  </si>
+  <si>
+    <t>Inserção de JComboBox com dados de cidades e estados nas telas de cadastro</t>
   </si>
 </sst>
 </file>
@@ -2639,28 +2642,28 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>13.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>11.59375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>9.9375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>8.28125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6.625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4.96875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3.3125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.65625</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2772,31 +2775,31 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>13.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>13.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>13.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>13.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>13.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>13.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>13.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>13.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>13.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2824,11 +2827,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="385501200"/>
-        <c:axId val="385506296"/>
+        <c:axId val="164523304"/>
+        <c:axId val="163766928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="385501200"/>
+        <c:axId val="164523304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2909,7 +2912,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385506296"/>
+        <c:crossAx val="163766928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2917,7 +2920,1511 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="385506296"/>
+        <c:axId val="163766928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>TEMPO EM HORAS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47520">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="164523304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Diogo!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25560">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Diogo!$B$3:$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>(hrs)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Terça
+18/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Quarta
+19/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Quinta
+20/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sexta
+21/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sábado
+22/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Domingo
+23/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Segunda
+24/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Terça
+25/10/2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Diogo!$B$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>13.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.59375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.28125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.96875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.65625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4415-482B-ACC6-22BD17151AFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Diogo!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25560">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Diogo!$B$3:$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>(hrs)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Terça
+18/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Quarta
+19/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Quinta
+20/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sexta
+21/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sábado
+22/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Domingo
+23/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Segunda
+24/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Terça
+25/10/2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Diogo!$B$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>13.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4415-482B-ACC6-22BD17151AFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:smooth val="0"/>
+        <c:axId val="163811320"/>
+        <c:axId val="164224304"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="163811320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>DIAS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="222222"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="164224304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="164224304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>TEMPO EM HORAS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47520">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="163811320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ivo!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25560">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ivo!$B$3:$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>(hrs)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Terça
+18/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Quarta
+19/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Quinta
+20/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sexta
+21/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sábado
+22/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Domingo
+23/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Segunda
+24/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Terça
+25/10/2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ivo!$B$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1ED5-4BB2-A00B-9F8936EBC51C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ivo!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25560">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ivo!$B$3:$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>(hrs)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Terça
+18/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Quarta
+19/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Quinta
+20/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sexta
+21/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sábado
+22/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Domingo
+23/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Segunda
+24/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Terça
+25/10/2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ivo!$B$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1ED5-4BB2-A00B-9F8936EBC51C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:smooth val="0"/>
+        <c:axId val="163943248"/>
+        <c:axId val="165406808"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="163943248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>DIAS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="222222"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="165406808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="165406808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>TEMPO EM HORAS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47520">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="163943248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Izaquiel!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25560">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Izaquiel!$B$3:$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>(hrs)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Terça
+18/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Quarta
+19/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Quinta
+20/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sexta
+21/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sábado
+22/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Domingo
+23/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Segunda
+24/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Terça
+25/10/2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Izaquiel!$B$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5DC1-45E4-B87A-C4BF8E3DF284}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Izaquiel!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25560">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Izaquiel!$B$3:$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>(hrs)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Terça
+18/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Quarta
+19/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Quinta
+20/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sexta
+21/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sábado
+22/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Domingo
+23/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Segunda
+24/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Terça
+25/10/2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Izaquiel!$B$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5DC1-45E4-B87A-C4BF8E3DF284}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:smooth val="0"/>
+        <c:axId val="165977584"/>
+        <c:axId val="165420576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="165977584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>DIAS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="222222"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="165420576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="165420576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3000,1519 +4507,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385501200"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Diogo!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ideal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25560">
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Diogo!$B$3:$J$3</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>(hrs)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Terça
-18/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Quarta
-19/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Quinta
-20/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sexta
-21/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sábado
-22/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Domingo
-23/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Segunda
-24/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Terça
-25/10/2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Diogo!$B$5:$J$5</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4415-482B-ACC6-22BD17151AFA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Diogo!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Real</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25560">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Diogo!$B$3:$J$3</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>(hrs)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Terça
-18/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Quarta
-19/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Quinta
-20/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sexta
-21/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sábado
-22/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Domingo
-23/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Segunda
-24/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Terça
-25/10/2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Diogo!$B$6:$J$6</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4415-482B-ACC6-22BD17151AFA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:smooth val="0"/>
-        <c:axId val="385507472"/>
-        <c:axId val="385505512"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="385507472"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>DIAS</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="222222"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="385505512"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="385505512"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>TEMPO EM HORAS</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="47520">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="385507472"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Ivo!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ideal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25560">
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Ivo!$B$3:$J$3</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>(hrs)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Terça
-18/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Quarta
-19/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Quinta
-20/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sexta
-21/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sábado
-22/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Domingo
-23/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Segunda
-24/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Terça
-25/10/2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Ivo!$B$5:$J$5</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1ED5-4BB2-A00B-9F8936EBC51C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Ivo!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Real</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25560">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Ivo!$B$3:$J$3</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>(hrs)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Terça
-18/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Quarta
-19/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Quinta
-20/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sexta
-21/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sábado
-22/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Domingo
-23/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Segunda
-24/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Terça
-25/10/2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Ivo!$B$6:$J$6</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1ED5-4BB2-A00B-9F8936EBC51C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:smooth val="0"/>
-        <c:axId val="385507864"/>
-        <c:axId val="385501984"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="385507864"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>DIAS</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="222222"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="385501984"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="385501984"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>TEMPO EM HORAS</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="47520">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="385507864"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Izaquiel!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ideal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25560">
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Izaquiel!$B$3:$J$3</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>(hrs)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Terça
-18/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Quarta
-19/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Quinta
-20/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sexta
-21/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sábado
-22/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Domingo
-23/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Segunda
-24/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Terça
-25/10/2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Izaquiel!$B$5:$J$5</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5DC1-45E4-B87A-C4BF8E3DF284}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Izaquiel!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Real</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25560">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Izaquiel!$B$3:$J$3</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>(hrs)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Terça
-18/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Quarta
-19/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Quinta
-20/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sexta
-21/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sábado
-22/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Domingo
-23/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Segunda
-24/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Terça
-25/10/2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Izaquiel!$B$6:$J$6</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5DC1-45E4-B87A-C4BF8E3DF284}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:smooth val="0"/>
-        <c:axId val="385501592"/>
-        <c:axId val="385504728"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="385501592"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>DIAS</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="222222"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="385504728"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="385504728"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>TEMPO EM HORAS</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="47520">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="385501592"/>
+        <c:crossAx val="165977584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4992,16 +4987,16 @@
   <sheetPr>
     <tabColor rgb="FF38761D"/>
   </sheetPr>
-  <dimension ref="A1:AB1048575"/>
+  <dimension ref="A1:AB1048576"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A14"/>
+    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.7109375"/>
-    <col min="2" max="2" width="60.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.42578125"/>
     <col min="4" max="4" width="13.28515625"/>
     <col min="5" max="5" width="10.85546875"/>
@@ -5137,12 +5132,12 @@
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
       <c r="E4" s="42">
-        <f>SUM(D4:D14)</f>
-        <v>0</v>
+        <f>SUM(D4:D15)</f>
+        <v>13.25</v>
       </c>
       <c r="F4" s="27"/>
       <c r="G4" s="39">
-        <f>SUM(F4:F14)</f>
+        <f>SUM(F4:F15)</f>
         <v>0</v>
       </c>
       <c r="H4" s="28" t="s">
@@ -5242,8 +5237,12 @@
       <c r="B7" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="31"/>
+      <c r="C7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="31">
+        <v>3.5</v>
+      </c>
       <c r="E7" s="43"/>
       <c r="F7" s="31"/>
       <c r="G7" s="40"/>
@@ -5274,8 +5273,12 @@
       <c r="B8" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="20"/>
+      <c r="C8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="20">
+        <v>2</v>
+      </c>
       <c r="E8" s="43"/>
       <c r="F8" s="20"/>
       <c r="G8" s="40"/>
@@ -5306,8 +5309,12 @@
       <c r="B9" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="20"/>
+      <c r="C9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="20">
+        <v>2.25</v>
+      </c>
       <c r="E9" s="43"/>
       <c r="F9" s="20"/>
       <c r="G9" s="40"/>
@@ -5335,18 +5342,20 @@
       <c r="AB9" s="4"/>
     </row>
     <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
+      <c r="C10" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="20">
+        <v>1</v>
+      </c>
       <c r="E10" s="43"/>
       <c r="F10" s="20"/>
       <c r="G10" s="40"/>
-      <c r="H10" s="28" t="s">
-        <v>35</v>
-      </c>
+      <c r="H10" s="28"/>
       <c r="I10" s="6"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -5368,18 +5377,22 @@
       <c r="AB10" s="4"/>
     </row>
     <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="20">
+        <v>4.5</v>
+      </c>
       <c r="E11" s="43"/>
       <c r="F11" s="20"/>
       <c r="G11" s="40"/>
-      <c r="H11" s="28"/>
+      <c r="H11" s="28" t="s">
+        <v>35</v>
+      </c>
       <c r="I11" s="6"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -5401,18 +5414,18 @@
       <c r="AB11" s="4"/>
     </row>
     <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
+      <c r="A12" s="34" t="s">
+        <v>44</v>
+      </c>
       <c r="B12" s="26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="43"/>
       <c r="F12" s="20"/>
       <c r="G12" s="40"/>
-      <c r="H12" s="28" t="s">
-        <v>35</v>
-      </c>
+      <c r="H12" s="28"/>
       <c r="I12" s="6"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -5434,15 +5447,11 @@
       <c r="AB12" s="4"/>
     </row>
     <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>24</v>
-      </c>
+      <c r="A13" s="35"/>
+      <c r="B13" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="43"/>
       <c r="F13" s="20"/>
@@ -5471,17 +5480,19 @@
       <c r="AB13" s="4"/>
     </row>
     <row r="14" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
+      <c r="A14" s="34" t="s">
+        <v>47</v>
+      </c>
       <c r="B14" s="24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="20"/>
-      <c r="E14" s="44"/>
+      <c r="E14" s="43"/>
       <c r="F14" s="20"/>
-      <c r="G14" s="41"/>
+      <c r="G14" s="40"/>
       <c r="H14" s="28" t="s">
         <v>35</v>
       </c>
@@ -5506,15 +5517,21 @@
       <c r="AB14" s="4"/>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="6"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
@@ -5525,6 +5542,14 @@
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
@@ -5532,7 +5557,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="G16" s="32"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -5589,7 +5614,7 @@
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
     </row>
-    <row r="19" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -5610,7 +5635,7 @@
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
     </row>
-    <row r="20" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -5632,6 +5657,7 @@
       <c r="T20" s="4"/>
     </row>
     <row r="21" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -5692,8 +5718,6 @@
       <c r="T23" s="4"/>
     </row>
     <row r="24" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -5757,13 +5781,42 @@
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
     </row>
-    <row r="1048571" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+    </row>
     <row r="1048572" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="G4:G15"/>
+    <mergeCell ref="E4:E15"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -5771,13 +5824,6 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="G4:G14"/>
-    <mergeCell ref="E4:E14"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:I6">
     <cfRule type="expression" dxfId="125" priority="2">
@@ -5965,35 +6011,35 @@
       </c>
       <c r="B5" s="12">
         <f>SUM('Sprint Backlog'!D:D)</f>
-        <v>0</v>
+        <v>13.25</v>
       </c>
       <c r="C5" s="13">
         <f t="shared" ref="C5:J5" si="1">B5-$B9</f>
-        <v>0</v>
+        <v>11.59375</v>
       </c>
       <c r="D5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.9375</v>
       </c>
       <c r="E5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.28125</v>
       </c>
       <c r="F5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.625</v>
       </c>
       <c r="G5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.96875</v>
       </c>
       <c r="H5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.3125</v>
       </c>
       <c r="I5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.65625</v>
       </c>
       <c r="J5" s="13">
         <f t="shared" si="1"/>
@@ -6001,11 +6047,11 @@
       </c>
       <c r="K5" s="13">
         <f>SUM(C5:J5)</f>
-        <v>0</v>
+        <v>46.375</v>
       </c>
       <c r="L5" s="13">
         <f>K5/A$3</f>
-        <v>0</v>
+        <v>5.796875</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -6021,47 +6067,47 @@
       </c>
       <c r="B6" s="12">
         <f>B5</f>
-        <v>0</v>
+        <v>13.25</v>
       </c>
       <c r="C6" s="13">
         <f t="shared" ref="C6:J6" si="2">B6-C9</f>
-        <v>0</v>
+        <v>13.25</v>
       </c>
       <c r="D6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13.25</v>
       </c>
       <c r="E6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13.25</v>
       </c>
       <c r="F6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13.25</v>
       </c>
       <c r="G6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13.25</v>
       </c>
       <c r="H6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13.25</v>
       </c>
       <c r="I6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13.25</v>
       </c>
       <c r="J6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13.25</v>
       </c>
       <c r="K6" s="13">
         <f>SUM(C6:J6)</f>
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="L6" s="13">
         <f>K6/A$3</f>
-        <v>0</v>
+        <v>13.25</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -6125,7 +6171,7 @@
       </c>
       <c r="B9" s="16">
         <f>B5/A3</f>
-        <v>0</v>
+        <v>1.65625</v>
       </c>
       <c r="C9" s="16">
         <f t="shared" ref="C9:K9" si="3">SUM(C10:C12)</f>
@@ -6181,7 +6227,7 @@
       </c>
       <c r="B10" s="18">
         <f>Diogo!B9</f>
-        <v>0</v>
+        <v>1.65625</v>
       </c>
       <c r="C10" s="13">
         <f>Diogo!C9</f>
@@ -7010,35 +7056,35 @@
       </c>
       <c r="B5" s="12">
         <f>SUMIF('Sprint Backlog'!C:C,"=Diogo",'Sprint Backlog'!D:D)</f>
-        <v>0</v>
+        <v>13.25</v>
       </c>
       <c r="C5" s="13">
         <f t="shared" ref="C5:J5" si="1">B5-$B9</f>
-        <v>0</v>
+        <v>11.59375</v>
       </c>
       <c r="D5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.9375</v>
       </c>
       <c r="E5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.28125</v>
       </c>
       <c r="F5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.625</v>
       </c>
       <c r="G5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.96875</v>
       </c>
       <c r="H5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.3125</v>
       </c>
       <c r="I5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.65625</v>
       </c>
       <c r="J5" s="13">
         <f t="shared" si="1"/>
@@ -7046,11 +7092,11 @@
       </c>
       <c r="K5" s="13">
         <f>SUM(C5:J5)</f>
-        <v>0</v>
+        <v>46.375</v>
       </c>
       <c r="L5" s="13">
         <f>K5/A$3</f>
-        <v>0</v>
+        <v>5.796875</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -7066,47 +7112,47 @@
       </c>
       <c r="B6" s="12">
         <f>B5</f>
-        <v>0</v>
+        <v>13.25</v>
       </c>
       <c r="C6" s="13">
         <f t="shared" ref="C6:J6" si="2">B6-C9</f>
-        <v>0</v>
+        <v>13.25</v>
       </c>
       <c r="D6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13.25</v>
       </c>
       <c r="E6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13.25</v>
       </c>
       <c r="F6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13.25</v>
       </c>
       <c r="G6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13.25</v>
       </c>
       <c r="H6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13.25</v>
       </c>
       <c r="I6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13.25</v>
       </c>
       <c r="J6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13.25</v>
       </c>
       <c r="K6" s="13">
         <f>SUM(C6:J6)</f>
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="L6" s="13">
         <f>K6/A$3</f>
-        <v>0</v>
+        <v>13.25</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -7170,7 +7216,7 @@
       </c>
       <c r="B9" s="16">
         <f>B5/A3</f>
-        <v>0</v>
+        <v>1.65625</v>
       </c>
       <c r="C9" s="16">
         <f t="shared" ref="C9:L9" si="3">SUM(C10:C12)</f>
@@ -7369,6 +7415,14 @@
     <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="N11:O11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A4"/>
@@ -7383,14 +7437,6 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="N11:O11"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:L96 N10:O12 B13:C13">
     <cfRule type="expression" dxfId="24" priority="2">
@@ -7947,6 +7993,8 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="C8:L8"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
@@ -7963,8 +8011,6 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="C8:L8"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:L96 K10:L12">
     <cfRule type="expression" dxfId="19" priority="14">
@@ -8025,7 +8071,7 @@
   </sheetPr>
   <dimension ref="A1:S1048576"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3:J4"/>
     </sheetView>
@@ -8544,6 +8590,8 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="C8:L8"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
@@ -8560,8 +8608,6 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="C8:L8"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:L96 K10:L12">
     <cfRule type="expression" dxfId="9" priority="12">

--- a/Sprint 6/Sprint_6 Burndown-Backlog.xlsx
+++ b/Sprint 6/Sprint_6 Burndown-Backlog.xlsx
@@ -16,8 +16,8 @@
     <sheet name="Sprint Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint Burndown" sheetId="2" r:id="rId2"/>
     <sheet name="Diogo" sheetId="3" r:id="rId3"/>
-    <sheet name="Ivo" sheetId="4" r:id="rId4"/>
-    <sheet name="Izaquiel" sheetId="5" r:id="rId5"/>
+    <sheet name="Izaquiel" sheetId="5" r:id="rId4"/>
+    <sheet name="Ivo" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="56">
   <si>
     <t>SPRINT BACKLOG</t>
   </si>
@@ -122,12 +122,6 @@
   </si>
   <si>
     <t>DIOGO DATA</t>
-  </si>
-  <si>
-    <t>Módulo Agendamento</t>
-  </si>
-  <si>
-    <t>Reajuste de código</t>
   </si>
   <si>
     <t>Terça
@@ -333,7 +327,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,12 +372,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor rgb="FFA4C2F4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -401,7 +389,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -498,11 +486,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -562,13 +601,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -579,16 +612,16 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -666,9 +699,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -684,11 +714,61 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="126">
+  <dxfs count="163">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -732,58 +812,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
@@ -852,6 +880,58 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
@@ -868,58 +948,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
@@ -994,6 +1022,540 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF1C4587"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1C4587"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1C4587"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1C4587"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1C4587"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1C4587"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1C4587"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1C4587"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1C4587"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1C4587"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0">
@@ -2781,25 +3343,25 @@
                   <c:v>13.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.25</c:v>
+                  <c:v>9.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.25</c:v>
+                  <c:v>7.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.25</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.25</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2827,11 +3389,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="164523304"/>
-        <c:axId val="163766928"/>
+        <c:axId val="152775304"/>
+        <c:axId val="152726712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="164523304"/>
+        <c:axId val="152775304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2912,7 +3474,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163766928"/>
+        <c:crossAx val="152726712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2920,1511 +3482,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163766928"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>TEMPO EM HORAS</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="47520">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="164523304"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Diogo!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ideal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25560">
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Diogo!$B$3:$J$3</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>(hrs)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Terça
-18/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Quarta
-19/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Quinta
-20/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sexta
-21/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sábado
-22/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Domingo
-23/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Segunda
-24/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Terça
-25/10/2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Diogo!$B$5:$J$5</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>13.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.59375</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.9375</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.28125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.625</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.96875</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.3125</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.65625</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4415-482B-ACC6-22BD17151AFA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Diogo!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Real</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25560">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Diogo!$B$3:$J$3</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>(hrs)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Terça
-18/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Quarta
-19/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Quinta
-20/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sexta
-21/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sábado
-22/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Domingo
-23/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Segunda
-24/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Terça
-25/10/2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Diogo!$B$6:$J$6</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>13.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.25</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13.25</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4415-482B-ACC6-22BD17151AFA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:smooth val="0"/>
-        <c:axId val="163811320"/>
-        <c:axId val="164224304"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="163811320"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>DIAS</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="222222"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="164224304"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="164224304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>TEMPO EM HORAS</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="47520">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="163811320"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Ivo!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ideal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25560">
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Ivo!$B$3:$J$3</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>(hrs)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Terça
-18/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Quarta
-19/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Quinta
-20/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sexta
-21/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sábado
-22/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Domingo
-23/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Segunda
-24/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Terça
-25/10/2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Ivo!$B$5:$J$5</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1ED5-4BB2-A00B-9F8936EBC51C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Ivo!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Real</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25560">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Ivo!$B$3:$J$3</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>(hrs)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Terça
-18/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Quarta
-19/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Quinta
-20/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sexta
-21/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sábado
-22/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Domingo
-23/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Segunda
-24/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Terça
-25/10/2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Ivo!$B$6:$J$6</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1ED5-4BB2-A00B-9F8936EBC51C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:smooth val="0"/>
-        <c:axId val="163943248"/>
-        <c:axId val="165406808"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="163943248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>DIAS</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="222222"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="165406808"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="165406808"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>TEMPO EM HORAS</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="47520">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="163943248"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Izaquiel!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ideal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25560">
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Izaquiel!$B$3:$J$3</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>(hrs)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Terça
-18/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Quarta
-19/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Quinta
-20/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sexta
-21/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sábado
-22/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Domingo
-23/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Segunda
-24/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Terça
-25/10/2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Izaquiel!$B$5:$J$5</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5DC1-45E4-B87A-C4BF8E3DF284}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Izaquiel!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Real</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25560">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Izaquiel!$B$3:$J$3</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>(hrs)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Terça
-18/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Quarta
-19/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Quinta
-20/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sexta
-21/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sábado
-22/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Domingo
-23/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Segunda
-24/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Terça
-25/10/2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Izaquiel!$B$6:$J$6</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5DC1-45E4-B87A-C4BF8E3DF284}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:smooth val="0"/>
-        <c:axId val="165977584"/>
-        <c:axId val="165420576"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="165977584"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>DIAS</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="222222"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="165420576"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="165420576"/>
+        <c:axId val="152726712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4507,7 +3565,1519 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165977584"/>
+        <c:crossAx val="152775304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Diogo!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25560">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Diogo!$B$3:$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>(hrs)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Terça
+18/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Quarta
+19/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Quinta
+20/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sexta
+21/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sábado
+22/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Domingo
+23/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Segunda
+24/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Terça
+25/10/2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Diogo!$B$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>13.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.59375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.28125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.96875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.65625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4415-482B-ACC6-22BD17151AFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Diogo!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25560">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Diogo!$B$3:$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>(hrs)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Terça
+18/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Quarta
+19/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Quinta
+20/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sexta
+21/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sábado
+22/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Domingo
+23/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Segunda
+24/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Terça
+25/10/2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Diogo!$B$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>13.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4415-482B-ACC6-22BD17151AFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:smooth val="0"/>
+        <c:axId val="151939192"/>
+        <c:axId val="151939576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="151939192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>DIAS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="222222"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151939576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="151939576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>TEMPO EM HORAS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47520">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151939192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Izaquiel!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25560">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Izaquiel!$B$3:$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>(hrs)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Terça
+18/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Quarta
+19/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Quinta
+20/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sexta
+21/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sábado
+22/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Domingo
+23/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Segunda
+24/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Terça
+25/10/2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Izaquiel!$B$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5DC1-45E4-B87A-C4BF8E3DF284}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Izaquiel!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25560">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Izaquiel!$B$3:$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>(hrs)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Terça
+18/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Quarta
+19/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Quinta
+20/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sexta
+21/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sábado
+22/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Domingo
+23/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Segunda
+24/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Terça
+25/10/2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Izaquiel!$B$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5DC1-45E4-B87A-C4BF8E3DF284}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:smooth val="0"/>
+        <c:axId val="151936000"/>
+        <c:axId val="152097792"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="151936000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>DIAS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="222222"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="152097792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="152097792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>TEMPO EM HORAS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47520">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151936000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ivo!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25560">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ivo!$B$3:$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>(hrs)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Terça
+18/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Quarta
+19/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Quinta
+20/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sexta
+21/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sábado
+22/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Domingo
+23/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Segunda
+24/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Terça
+25/10/2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ivo!$B$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1ED5-4BB2-A00B-9F8936EBC51C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ivo!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25560">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ivo!$B$3:$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>(hrs)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Terça
+18/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Quarta
+19/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Quinta
+20/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sexta
+21/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sábado
+22/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Domingo
+23/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Segunda
+24/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Terça
+25/10/2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ivo!$B$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1ED5-4BB2-A00B-9F8936EBC51C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:smooth val="0"/>
+        <c:axId val="151931336"/>
+        <c:axId val="151933184"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="151931336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>DIAS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="222222"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151933184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="151933184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>TEMPO EM HORAS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47520">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151931336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4623,18 +5193,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>309600</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 8"/>
+        <xdr:cNvPr id="3" name="Chart 8"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4658,18 +5228,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>309600</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 8"/>
+        <xdr:cNvPr id="2" name="Chart 8"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4989,8 +5559,8 @@
   </sheetPr>
   <dimension ref="A1:AB1048576"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5007,16 +5577,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
       <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
@@ -5041,27 +5611,27 @@
       <c r="AB1" s="4"/>
     </row>
     <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="G2" s="31"/>
+      <c r="H2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="33">
+      <c r="I2" s="31">
         <v>8</v>
       </c>
       <c r="J2" s="3"/>
@@ -5085,9 +5655,9 @@
       <c r="AB2" s="4"/>
     </row>
     <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
@@ -5100,8 +5670,8 @@
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -5123,28 +5693,28 @@
       <c r="AB3" s="4"/>
     </row>
     <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="42">
+      <c r="A4" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="40">
         <f>SUM(D4:D15)</f>
         <v>13.25</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="39">
+      <c r="F4" s="25"/>
+      <c r="G4" s="37">
         <f>SUM(F4:F15)</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="3"/>
+        <v>13.25</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="65"/>
+      <c r="J4" s="67"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -5165,17 +5735,19 @@
       <c r="AB4" s="4"/>
     </row>
     <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="37"/>
-      <c r="B5" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="22"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="66"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -5197,19 +5769,19 @@
       <c r="AB5" s="4"/>
     </row>
     <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
-      <c r="B6" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="22"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="66"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -5231,23 +5803,25 @@
       <c r="AB6" s="4"/>
     </row>
     <row r="7" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>41</v>
+      <c r="A7" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="29">
         <v>3.5</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="28" t="s">
-        <v>35</v>
+      <c r="E7" s="41"/>
+      <c r="F7" s="29">
+        <v>3.5</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -5269,9 +5843,9 @@
       <c r="AB7" s="4"/>
     </row>
     <row r="8" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
-      <c r="B8" s="24" t="s">
-        <v>42</v>
+      <c r="A8" s="43"/>
+      <c r="B8" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -5279,11 +5853,13 @@
       <c r="D8" s="20">
         <v>2</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="28" t="s">
-        <v>35</v>
+      <c r="E8" s="41"/>
+      <c r="F8" s="20">
+        <v>2</v>
+      </c>
+      <c r="G8" s="38"/>
+      <c r="H8" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -5305,9 +5881,9 @@
       <c r="AB8" s="4"/>
     </row>
     <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="45"/>
-      <c r="B9" s="25" t="s">
-        <v>43</v>
+      <c r="A9" s="43"/>
+      <c r="B9" s="23" t="s">
+        <v>41</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>22</v>
@@ -5315,11 +5891,13 @@
       <c r="D9" s="20">
         <v>2.25</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="28" t="s">
-        <v>35</v>
+      <c r="E9" s="41"/>
+      <c r="F9" s="20">
+        <v>2.25</v>
+      </c>
+      <c r="G9" s="38"/>
+      <c r="H9" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="I9" s="6"/>
       <c r="K9" s="4"/>
@@ -5342,9 +5920,9 @@
       <c r="AB9" s="4"/>
     </row>
     <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="45"/>
-      <c r="B10" s="26" t="s">
-        <v>43</v>
+      <c r="A10" s="43"/>
+      <c r="B10" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>22</v>
@@ -5352,10 +5930,14 @@
       <c r="D10" s="20">
         <v>1</v>
       </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="28"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="20">
+        <v>1</v>
+      </c>
+      <c r="G10" s="38"/>
+      <c r="H10" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="I10" s="6"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -5377,9 +5959,9 @@
       <c r="AB10" s="4"/>
     </row>
     <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
-      <c r="B11" s="25" t="s">
-        <v>57</v>
+      <c r="A11" s="33"/>
+      <c r="B11" s="23" t="s">
+        <v>55</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>22</v>
@@ -5387,11 +5969,13 @@
       <c r="D11" s="20">
         <v>4.5</v>
       </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="28" t="s">
-        <v>35</v>
+      <c r="E11" s="41"/>
+      <c r="F11" s="20">
+        <v>4.5</v>
+      </c>
+      <c r="G11" s="38"/>
+      <c r="H11" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="I11" s="6"/>
       <c r="K11" s="4"/>
@@ -5414,18 +5998,20 @@
       <c r="AB11" s="4"/>
     </row>
     <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="24" t="s">
         <v>44</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>46</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
-      <c r="E12" s="43"/>
+      <c r="E12" s="41"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="28"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="I12" s="6"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -5447,17 +6033,17 @@
       <c r="AB12" s="4"/>
     </row>
     <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
-      <c r="B13" s="26" t="s">
-        <v>45</v>
+      <c r="A13" s="33"/>
+      <c r="B13" s="24" t="s">
+        <v>43</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
-      <c r="E13" s="43"/>
+      <c r="E13" s="41"/>
       <c r="F13" s="20"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="28" t="s">
-        <v>35</v>
+      <c r="G13" s="38"/>
+      <c r="H13" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="I13" s="6"/>
       <c r="K13" s="4"/>
@@ -5480,21 +6066,21 @@
       <c r="AB13" s="4"/>
     </row>
     <row r="14" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="22" t="s">
         <v>47</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>49</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="20"/>
-      <c r="E14" s="43"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="20"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="28" t="s">
-        <v>35</v>
+      <c r="G14" s="38"/>
+      <c r="H14" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="I14" s="6"/>
       <c r="K14" s="4"/>
@@ -5517,19 +6103,19 @@
       <c r="AB14" s="4"/>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
-      <c r="B15" s="24" t="s">
-        <v>48</v>
+      <c r="A15" s="33"/>
+      <c r="B15" s="22" t="s">
+        <v>46</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="20"/>
-      <c r="E15" s="44"/>
+      <c r="E15" s="42"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="28" t="s">
-        <v>35</v>
+      <c r="G15" s="39"/>
+      <c r="H15" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="I15" s="6"/>
       <c r="K15" s="4"/>
@@ -5557,7 +6143,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="32"/>
+      <c r="G16" s="30"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -5810,6 +6396,13 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A4:A6"/>
@@ -5817,21 +6410,14 @@
     <mergeCell ref="E4:E15"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:I6">
-    <cfRule type="expression" dxfId="125" priority="2">
+    <cfRule type="expression" dxfId="162" priority="2">
       <formula>LEN(TRIM(I1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I6">
-    <cfRule type="notContainsText" dxfId="124" priority="3" operator="notContains" text="676766676ppppp"/>
+    <cfRule type="notContainsText" dxfId="161" priority="3" operator="notContains" text="676766676ppppp"/>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -5847,7 +6433,7 @@
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:J4"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5868,20 +6454,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="47"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47" t="s">
+      <c r="A1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -5940,40 +6526,40 @@
       <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="48">
+      <c r="A3" s="46">
         <v>8</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="52" t="s">
+      <c r="C3" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="G3" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="H3" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="I3" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="J3" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="49" t="s">
+      <c r="K3" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="L3" s="47" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="7"/>
@@ -5985,18 +6571,18 @@
       <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -6075,39 +6661,39 @@
       </c>
       <c r="D6" s="13">
         <f t="shared" si="2"/>
-        <v>13.25</v>
+        <v>9.75</v>
       </c>
       <c r="E6" s="13">
         <f t="shared" si="2"/>
-        <v>13.25</v>
+        <v>7.75</v>
       </c>
       <c r="F6" s="13">
         <f t="shared" si="2"/>
-        <v>13.25</v>
+        <v>5.5</v>
       </c>
       <c r="G6" s="13">
         <f t="shared" si="2"/>
-        <v>13.25</v>
+        <v>4.5</v>
       </c>
       <c r="H6" s="13">
         <f t="shared" si="2"/>
-        <v>13.25</v>
+        <v>0</v>
       </c>
       <c r="I6" s="13">
         <f t="shared" si="2"/>
-        <v>13.25</v>
+        <v>0</v>
       </c>
       <c r="J6" s="13">
         <f t="shared" si="2"/>
-        <v>13.25</v>
+        <v>0</v>
       </c>
       <c r="K6" s="13">
         <f>SUM(C6:J6)</f>
-        <v>106</v>
+        <v>40.75</v>
       </c>
       <c r="L6" s="13">
         <f>K6/A$3</f>
-        <v>13.25</v>
+        <v>5.09375</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -6145,18 +6731,18 @@
       <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -6179,23 +6765,23 @@
       </c>
       <c r="D9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="G9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I9" s="16">
         <f t="shared" si="3"/>
@@ -6207,11 +6793,11 @@
       </c>
       <c r="K9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>13.25</v>
       </c>
       <c r="L9" s="16">
         <f>K9/A$3</f>
-        <v>0</v>
+        <v>1.65625</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -6234,20 +6820,19 @@
         <v>0</v>
       </c>
       <c r="D10" s="13">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E10" s="13">
-        <f>Diogo!E9</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" s="13">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="G10" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="13">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I10" s="13">
         <f>Diogo!I9</f>
@@ -6258,11 +6843,11 @@
       </c>
       <c r="K10" s="13">
         <f>SUM(C10:J10)</f>
-        <v>0</v>
+        <v>13.25</v>
       </c>
       <c r="L10" s="13">
         <f>K10/A$3</f>
-        <v>0</v>
+        <v>1.65625</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
@@ -6394,493 +6979,478 @@
     <mergeCell ref="L3:L4"/>
   </mergeCells>
   <conditionalFormatting sqref="B10:C10 B12">
-    <cfRule type="expression" dxfId="123" priority="33">
+    <cfRule type="expression" dxfId="160" priority="36">
       <formula>LEN(TRIM(B10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="122" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="121" priority="35" operator="notEqual">
+    <cfRule type="cellIs" dxfId="158" priority="38" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10 B12">
-    <cfRule type="notContainsText" dxfId="120" priority="37" operator="notContains" text="9875894754())("/>
+    <cfRule type="notContainsText" dxfId="157" priority="40" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="119" priority="38">
+    <cfRule type="expression" dxfId="156" priority="41">
       <formula>LEN(TRIM(K5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="118" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="42" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="117" priority="40" operator="notEqual">
+    <cfRule type="cellIs" dxfId="154" priority="43" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="116" priority="41">
+    <cfRule type="expression" dxfId="153" priority="44">
       <formula>LEN(TRIM(K5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="115" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="45" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="114" priority="43" operator="notEqual">
+    <cfRule type="cellIs" dxfId="151" priority="46" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="113" priority="44">
+    <cfRule type="expression" dxfId="150" priority="47">
       <formula>LEN(TRIM(K6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="112" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="48" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="111" priority="46" operator="notEqual">
+    <cfRule type="cellIs" dxfId="148" priority="49" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="110" priority="47">
+    <cfRule type="expression" dxfId="147" priority="50">
       <formula>LEN(TRIM(K6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="109" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="51" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="108" priority="49" operator="notEqual">
+    <cfRule type="cellIs" dxfId="145" priority="52" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="107" priority="50">
+    <cfRule type="expression" dxfId="144" priority="53">
       <formula>LEN(TRIM(L6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="106" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="54" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="105" priority="52" operator="notEqual">
+    <cfRule type="cellIs" dxfId="142" priority="55" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="104" priority="53">
+    <cfRule type="expression" dxfId="141" priority="56">
       <formula>LEN(TRIM(L6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="103" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="57" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="102" priority="55" operator="notEqual">
+    <cfRule type="cellIs" dxfId="139" priority="58" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="101" priority="56">
+    <cfRule type="expression" dxfId="138" priority="59">
       <formula>LEN(TRIM(L5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="100" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="60" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="99" priority="58" operator="notEqual">
+    <cfRule type="cellIs" dxfId="136" priority="61" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="98" priority="59">
+    <cfRule type="expression" dxfId="135" priority="62">
       <formula>LEN(TRIM(L5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="97" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="63" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="96" priority="61" operator="notEqual">
+    <cfRule type="cellIs" dxfId="133" priority="64" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="95" priority="62">
+    <cfRule type="expression" dxfId="132" priority="65">
       <formula>LEN(TRIM(K10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="94" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="66" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="93" priority="64" operator="notEqual">
+    <cfRule type="cellIs" dxfId="130" priority="67" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="92" priority="65">
+    <cfRule type="expression" dxfId="129" priority="68">
       <formula>LEN(TRIM(K10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="91" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="69" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="90" priority="67" operator="notEqual">
+    <cfRule type="cellIs" dxfId="127" priority="70" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="89" priority="68">
+    <cfRule type="expression" dxfId="126" priority="71">
       <formula>LEN(TRIM(K11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="88" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="72" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="87" priority="70" operator="notEqual">
+    <cfRule type="cellIs" dxfId="124" priority="73" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="86" priority="71">
+    <cfRule type="expression" dxfId="123" priority="74">
       <formula>LEN(TRIM(K11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="85" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="75" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="84" priority="73" operator="notEqual">
+    <cfRule type="cellIs" dxfId="121" priority="76" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="83" priority="74">
+    <cfRule type="expression" dxfId="120" priority="77">
       <formula>LEN(TRIM(K12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="82" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="78" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="81" priority="76" operator="notEqual">
+    <cfRule type="cellIs" dxfId="118" priority="79" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="80" priority="77">
+    <cfRule type="expression" dxfId="117" priority="80">
       <formula>LEN(TRIM(K12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="79" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="81" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="78" priority="79" operator="notEqual">
+    <cfRule type="cellIs" dxfId="115" priority="82" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="77" priority="80">
+    <cfRule type="expression" dxfId="114" priority="83">
       <formula>LEN(TRIM(L10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="76" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="84" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="75" priority="82" operator="notEqual">
+    <cfRule type="cellIs" dxfId="112" priority="85" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="74" priority="83">
+    <cfRule type="expression" dxfId="111" priority="86">
       <formula>LEN(TRIM(L10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="73" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="87" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="72" priority="85" operator="notEqual">
+    <cfRule type="cellIs" dxfId="109" priority="88" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="expression" dxfId="71" priority="86">
+    <cfRule type="expression" dxfId="108" priority="89">
       <formula>LEN(TRIM(L11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="70" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="90" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="69" priority="88" operator="notEqual">
+    <cfRule type="cellIs" dxfId="106" priority="91" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="expression" dxfId="68" priority="89">
+    <cfRule type="expression" dxfId="105" priority="92">
       <formula>LEN(TRIM(L11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="67" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="93" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="66" priority="91" operator="notEqual">
+    <cfRule type="cellIs" dxfId="103" priority="94" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="65" priority="92">
+    <cfRule type="expression" dxfId="102" priority="95">
       <formula>LEN(TRIM(L12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="64" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="96" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="63" priority="94" operator="notEqual">
+    <cfRule type="cellIs" dxfId="100" priority="97" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="62" priority="95">
+    <cfRule type="expression" dxfId="99" priority="98">
       <formula>LEN(TRIM(L12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="61" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="99" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="60" priority="97" operator="notEqual">
+    <cfRule type="cellIs" dxfId="97" priority="100" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="59" priority="140">
+    <cfRule type="expression" dxfId="96" priority="143">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="58" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="144" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="57" priority="142" operator="notEqual">
+    <cfRule type="cellIs" dxfId="94" priority="145" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="56" priority="143">
+    <cfRule type="expression" dxfId="93" priority="146">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="55" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="147" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="54" priority="145" operator="notEqual">
+    <cfRule type="cellIs" dxfId="91" priority="148" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="53" priority="29">
+  <conditionalFormatting sqref="I10:J10">
+    <cfRule type="expression" dxfId="84" priority="26">
+      <formula>LEN(TRIM(I10))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10:J10">
+    <cfRule type="cellIs" dxfId="83" priority="27" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10:J10">
+    <cfRule type="cellIs" dxfId="82" priority="28" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:J11">
+    <cfRule type="expression" dxfId="81" priority="20">
+      <formula>LEN(TRIM(D11))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:J11">
+    <cfRule type="cellIs" dxfId="80" priority="21" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:J11">
+    <cfRule type="cellIs" dxfId="79" priority="22" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:J11">
+    <cfRule type="expression" dxfId="78" priority="23">
+      <formula>LEN(TRIM(D11))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:J11">
+    <cfRule type="cellIs" dxfId="77" priority="24" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:J11">
+    <cfRule type="cellIs" dxfId="76" priority="25" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="expression" dxfId="75" priority="16">
+      <formula>LEN(TRIM(B11))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="notContainsText" dxfId="74" priority="17" operator="notContains" text="9875894754())("/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="73" priority="10">
+      <formula>LEN(TRIM(C12))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="cellIs" dxfId="72" priority="11" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="cellIs" dxfId="71" priority="12" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="70" priority="13">
+      <formula>LEN(TRIM(C12))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="cellIs" dxfId="69" priority="14" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="cellIs" dxfId="68" priority="15" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:J12">
+    <cfRule type="expression" dxfId="67" priority="4">
+      <formula>LEN(TRIM(D12))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:J12">
+    <cfRule type="cellIs" dxfId="66" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:J12">
+    <cfRule type="cellIs" dxfId="65" priority="6" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:J12">
+    <cfRule type="expression" dxfId="64" priority="7">
+      <formula>LEN(TRIM(D12))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:J12">
+    <cfRule type="cellIs" dxfId="63" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:J12">
+    <cfRule type="cellIs" dxfId="62" priority="9" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:H10">
+    <cfRule type="expression" dxfId="25" priority="1">
       <formula>LEN(TRIM(D10))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="52" priority="30" operator="equal">
+  <conditionalFormatting sqref="D10:H10">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="51" priority="31" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="50" priority="26">
-      <formula>LEN(TRIM(E10))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="49" priority="27" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="48" priority="28" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10:J10">
-    <cfRule type="expression" dxfId="47" priority="23">
-      <formula>LEN(TRIM(F10))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10:J10">
-    <cfRule type="cellIs" dxfId="46" priority="24" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10:J10">
-    <cfRule type="cellIs" dxfId="45" priority="25" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:J11">
-    <cfRule type="expression" dxfId="44" priority="17">
-      <formula>LEN(TRIM(D11))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:J11">
-    <cfRule type="cellIs" dxfId="43" priority="18" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:J11">
-    <cfRule type="cellIs" dxfId="42" priority="19" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:J11">
-    <cfRule type="expression" dxfId="41" priority="20">
-      <formula>LEN(TRIM(D11))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:J11">
-    <cfRule type="cellIs" dxfId="40" priority="21" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:J11">
-    <cfRule type="cellIs" dxfId="39" priority="22" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="38" priority="13">
-      <formula>LEN(TRIM(B11))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="notContainsText" dxfId="37" priority="14" operator="notContains" text="9875894754())("/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="36" priority="7">
-      <formula>LEN(TRIM(C12))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="35" priority="8" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="34" priority="9" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="33" priority="10">
-      <formula>LEN(TRIM(C12))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="32" priority="11" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="31" priority="12" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:J12">
-    <cfRule type="expression" dxfId="30" priority="1">
-      <formula>LEN(TRIM(D12))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:J12">
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:J12">
-    <cfRule type="cellIs" dxfId="28" priority="3" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:J12">
-    <cfRule type="expression" dxfId="27" priority="4">
-      <formula>LEN(TRIM(D12))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:J12">
-    <cfRule type="cellIs" dxfId="26" priority="5" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:J12">
-    <cfRule type="cellIs" dxfId="25" priority="6" operator="notEqual">
+  <conditionalFormatting sqref="D10:H10">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6899,7 +7469,7 @@
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:J4"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6913,20 +7483,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="47"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47" t="s">
+      <c r="A1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -6985,40 +7555,40 @@
       <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="48">
+      <c r="A3" s="46">
         <v>8</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="52" t="s">
+      <c r="C3" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="G3" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="H3" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="I3" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="J3" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="49" t="s">
+      <c r="K3" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="L3" s="47" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="7"/>
@@ -7030,18 +7600,18 @@
       <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -7120,39 +7690,39 @@
       </c>
       <c r="D6" s="13">
         <f t="shared" si="2"/>
-        <v>13.25</v>
+        <v>9.75</v>
       </c>
       <c r="E6" s="13">
         <f t="shared" si="2"/>
-        <v>13.25</v>
+        <v>7.75</v>
       </c>
       <c r="F6" s="13">
         <f t="shared" si="2"/>
-        <v>13.25</v>
+        <v>5.5</v>
       </c>
       <c r="G6" s="13">
         <f t="shared" si="2"/>
-        <v>13.25</v>
+        <v>4.5</v>
       </c>
       <c r="H6" s="13">
         <f t="shared" si="2"/>
-        <v>13.25</v>
+        <v>0</v>
       </c>
       <c r="I6" s="13">
         <f t="shared" si="2"/>
-        <v>13.25</v>
+        <v>0</v>
       </c>
       <c r="J6" s="13">
         <f t="shared" si="2"/>
-        <v>13.25</v>
+        <v>0</v>
       </c>
       <c r="K6" s="13">
         <f>SUM(C6:J6)</f>
-        <v>106</v>
+        <v>40.75</v>
       </c>
       <c r="L6" s="13">
         <f>K6/A$3</f>
-        <v>13.25</v>
+        <v>5.09375</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -7190,18 +7760,18 @@
       <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -7219,44 +7789,44 @@
         <v>1.65625</v>
       </c>
       <c r="C9" s="16">
-        <f t="shared" ref="C9:L9" si="3">SUM(C10:C12)</f>
+        <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
       <c r="D9" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(D10:D12)</f>
+        <v>3.5</v>
       </c>
       <c r="E9" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(E10:E12)</f>
+        <v>2</v>
       </c>
       <c r="F9" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(F10:F12)</f>
+        <v>2.25</v>
       </c>
       <c r="G9" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(G10:G12)</f>
+        <v>1</v>
       </c>
       <c r="H9" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(H10:H12)</f>
+        <v>4.5</v>
       </c>
       <c r="I9" s="16">
-        <f t="shared" si="3"/>
+        <f>SUM(I10:I12)</f>
         <v>0</v>
       </c>
       <c r="J9" s="16">
-        <f t="shared" si="3"/>
+        <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
       <c r="K9" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(K10:K12)</f>
+        <v>13.25</v>
       </c>
       <c r="L9" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(L10:L12)</f>
+        <v>1.65625</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -7267,10 +7837,10 @@
       <c r="S9" s="7"/>
     </row>
     <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="59"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="13">
         <v>0</v>
       </c>
@@ -7304,35 +7874,35 @@
         <v>0</v>
       </c>
       <c r="M10" s="7"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
     </row>
     <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="62"/>
+      <c r="A11" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="59"/>
       <c r="C11" s="13">
         <v>0</v>
       </c>
       <c r="D11" s="13">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E11" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" s="13">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="G11" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="13">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I11" s="13">
         <v>0</v>
@@ -7342,25 +7912,25 @@
       </c>
       <c r="K11" s="13">
         <f>SUM(C11:J11)</f>
-        <v>0</v>
+        <v>13.25</v>
       </c>
       <c r="L11" s="13">
         <f>K11/A$3</f>
-        <v>0</v>
+        <v>1.65625</v>
       </c>
       <c r="M11" s="7"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
     </row>
     <row r="12" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="56"/>
+      <c r="A12" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="61"/>
       <c r="C12" s="13">
         <v>0</v>
       </c>
@@ -7394,35 +7964,61 @@
         <v>0</v>
       </c>
       <c r="M12" s="7"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
     </row>
-    <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+    <row r="13" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="62"/>
+      <c r="C13" s="13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="13">
+        <f>SUM(C13:J13)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="13">
+        <f>K13/A$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="63"/>
+      <c r="B14" s="64"/>
     </row>
     <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="N11:O11"/>
+  <mergeCells count="23">
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A4"/>
@@ -7437,46 +8033,54 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
-  <conditionalFormatting sqref="C10:L96 N10:O12 B13:C13">
-    <cfRule type="expression" dxfId="24" priority="2">
-      <formula>LEN(TRIM(B10))=0</formula>
+  <conditionalFormatting sqref="N10:O12 C10:L96">
+    <cfRule type="expression" dxfId="37" priority="2">
+      <formula>LEN(TRIM(C10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:L96">
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:L96">
-    <cfRule type="cellIs" dxfId="22" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B96">
-    <cfRule type="expression" dxfId="21" priority="5">
+  <conditionalFormatting sqref="A10:B12 A15:B96 A13">
+    <cfRule type="expression" dxfId="61" priority="5">
       <formula>LEN(TRIM(A10))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B96 N10:O12 B13:C13">
-    <cfRule type="notContainsText" dxfId="20" priority="6" operator="notContains" text="9875894754())("/>
+  <conditionalFormatting sqref="N10:O12 C13 A10:B12 A15:B96 A13">
+    <cfRule type="notContainsText" dxfId="60" priority="6" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFA4C2F4"/>
+    <tabColor rgb="FFC9DAF8"/>
   </sheetPr>
   <dimension ref="A1:S1048576"/>
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:J4"/>
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7490,20 +8094,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="47"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="A1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -7562,40 +8166,40 @@
       <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="48">
+      <c r="A3" s="46">
         <v>8</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="52" t="s">
+      <c r="C3" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="G3" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="H3" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="I3" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="J3" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="49" t="s">
+      <c r="K3" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="L3" s="47" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="7"/>
@@ -7607,18 +8211,18 @@
       <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -7632,7 +8236,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="12">
-        <f>SUMIF('Sprint Backlog'!C:C,"=Ivo",'Sprint Backlog'!D:D)</f>
+        <f>SUMIF('Sprint Backlog'!C:C,"=Izaquiel",'Sprint Backlog'!D:D)</f>
         <v>0</v>
       </c>
       <c r="C5" s="13">
@@ -7767,18 +8371,18 @@
       <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
+      <c r="C8" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -7843,40 +8447,40 @@
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
     </row>
-    <row r="10" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="21">
-        <v>0</v>
-      </c>
-      <c r="D10" s="21">
-        <v>0</v>
-      </c>
-      <c r="E10" s="21">
-        <v>0</v>
-      </c>
-      <c r="F10" s="21">
-        <v>0</v>
-      </c>
-      <c r="G10" s="21">
-        <v>0</v>
-      </c>
-      <c r="H10" s="21">
-        <v>0</v>
-      </c>
-      <c r="I10" s="21">
-        <v>0</v>
-      </c>
-      <c r="J10" s="21">
-        <v>0</v>
-      </c>
-      <c r="K10" s="21">
+    <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="56"/>
+      <c r="C10" s="13">
+        <v>0</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0</v>
+      </c>
+      <c r="K10" s="13">
         <f>SUM(C10:J10)</f>
         <v>0</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="13">
         <f>K10/A$3</f>
         <v>0</v>
       </c>
@@ -7888,40 +8492,40 @@
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="21">
-        <v>0</v>
-      </c>
-      <c r="D11" s="21">
-        <v>0</v>
-      </c>
-      <c r="E11" s="21">
-        <v>0</v>
-      </c>
-      <c r="F11" s="21">
-        <v>0</v>
-      </c>
-      <c r="G11" s="21">
-        <v>0</v>
-      </c>
-      <c r="H11" s="21">
-        <v>0</v>
-      </c>
-      <c r="I11" s="21">
-        <v>0</v>
-      </c>
-      <c r="J11" s="21">
-        <v>0</v>
-      </c>
-      <c r="K11" s="21">
+    <row r="11" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="56"/>
+      <c r="C11" s="13">
+        <v>0</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0</v>
+      </c>
+      <c r="K11" s="13">
         <f>SUM(C11:J11)</f>
         <v>0</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="13">
         <f>K11/A$3</f>
         <v>0</v>
       </c>
@@ -7933,40 +8537,40 @@
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="21">
-        <v>0</v>
-      </c>
-      <c r="D12" s="21">
-        <v>0</v>
-      </c>
-      <c r="E12" s="21">
-        <v>0</v>
-      </c>
-      <c r="F12" s="21">
-        <v>0</v>
-      </c>
-      <c r="G12" s="21">
-        <v>0</v>
-      </c>
-      <c r="H12" s="21">
-        <v>0</v>
-      </c>
-      <c r="I12" s="21">
-        <v>0</v>
-      </c>
-      <c r="J12" s="21">
-        <v>0</v>
-      </c>
-      <c r="K12" s="21">
+    <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="59"/>
+      <c r="C12" s="13">
+        <v>0</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0</v>
+      </c>
+      <c r="J12" s="13">
+        <v>0</v>
+      </c>
+      <c r="K12" s="13">
         <f>SUM(C12:J12)</f>
         <v>0</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="13">
         <f>K12/A$3</f>
         <v>0</v>
       </c>
@@ -7979,25 +8583,89 @@
       <c r="S12" s="7"/>
     </row>
     <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="A13" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="61"/>
+      <c r="C13" s="13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="13">
+        <f>SUM(C13:J13)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="13">
+        <f>K13/A$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="62"/>
+      <c r="C14" s="13">
+        <v>0</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0</v>
+      </c>
+      <c r="K14" s="13">
+        <f>SUM(C14:J14)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="13">
+        <f>K14/A$3</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
+  <mergeCells count="20">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A4"/>
@@ -8011,52 +8679,80 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
-  <conditionalFormatting sqref="C15:L96 K10:L12">
-    <cfRule type="expression" dxfId="19" priority="14">
+  <conditionalFormatting sqref="C15:L96 K10:L10">
+    <cfRule type="expression" dxfId="49" priority="17">
       <formula>LEN(TRIM(C10))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:L96 K10:L12">
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
+  <conditionalFormatting sqref="C15:L96 K10:L10">
+    <cfRule type="cellIs" dxfId="48" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:L96 K10:L12">
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="notEqual">
+  <conditionalFormatting sqref="C15:L96 K10:L10">
+    <cfRule type="cellIs" dxfId="47" priority="19" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B96">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="46" priority="20">
       <formula>LEN(TRIM(A15))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B96">
-    <cfRule type="notContainsText" dxfId="15" priority="18" operator="notContains" text="9875894754())("/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:J12">
-    <cfRule type="expression" dxfId="14" priority="5">
+    <cfRule type="notContainsText" dxfId="45" priority="21" operator="notContains" text="9875894754())("/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:J10">
+    <cfRule type="expression" dxfId="44" priority="10">
       <formula>LEN(TRIM(C10))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:J12">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+  <conditionalFormatting sqref="C10:J10">
+    <cfRule type="cellIs" dxfId="43" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:J12">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="notEqual">
+  <conditionalFormatting sqref="C10:J10">
+    <cfRule type="cellIs" dxfId="42" priority="12" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B12">
-    <cfRule type="expression" dxfId="11" priority="1">
+  <conditionalFormatting sqref="A10:B10">
+    <cfRule type="expression" dxfId="41" priority="6">
       <formula>LEN(TRIM(A10))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B12">
-    <cfRule type="notContainsText" dxfId="10" priority="2" operator="notContains" text="9875894754())("/>
+  <conditionalFormatting sqref="A10:B10">
+    <cfRule type="notContainsText" dxfId="40" priority="7" operator="notContains" text="9875894754())("/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:L14">
+    <cfRule type="expression" dxfId="19" priority="1">
+      <formula>LEN(TRIM(C11))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:L14">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:L14">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:B13 A14">
+    <cfRule type="expression" dxfId="13" priority="4">
+      <formula>LEN(TRIM(A11))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14 A11:B13 A14">
+    <cfRule type="notContainsText" dxfId="11" priority="5" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -8067,13 +8763,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFC9DAF8"/>
+    <tabColor rgb="FFA4C2F4"/>
   </sheetPr>
   <dimension ref="A1:S1048576"/>
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:J4"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8087,20 +8783,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="47"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="A1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -8159,40 +8855,40 @@
       <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="48">
+      <c r="A3" s="46">
         <v>8</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="52" t="s">
+      <c r="C3" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="G3" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="H3" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="I3" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="J3" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="49" t="s">
+      <c r="K3" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="L3" s="47" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="7"/>
@@ -8204,18 +8900,18 @@
       <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -8229,7 +8925,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="12">
-        <f>SUMIF('Sprint Backlog'!C:C,"=Izaquiel",'Sprint Backlog'!D:D)</f>
+        <f>SUMIF('Sprint Backlog'!C:C,"=Ivo",'Sprint Backlog'!D:D)</f>
         <v>0</v>
       </c>
       <c r="C5" s="13">
@@ -8364,18 +9060,18 @@
       <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
+      <c r="C8" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -8440,11 +9136,11 @@
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
     </row>
-    <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="58" t="s">
+    <row r="10" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="59"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="13">
         <v>0</v>
       </c>
@@ -8485,11 +9181,11 @@
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="62"/>
+    <row r="11" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="59"/>
       <c r="C11" s="13">
         <v>0</v>
       </c>
@@ -8530,11 +9226,11 @@
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="56"/>
+    <row r="12" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="61"/>
       <c r="C12" s="13">
         <v>0</v>
       </c>
@@ -8576,25 +9272,50 @@
       <c r="S12" s="7"/>
     </row>
     <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="A13" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="62"/>
+      <c r="C13" s="13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="13">
+        <f>SUM(C13:J13)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="13">
+        <f>K13/A$3</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
+  <mergeCells count="19">
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A4"/>
@@ -8608,52 +9329,57 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
-  <conditionalFormatting sqref="C15:L96 K10:L12">
-    <cfRule type="expression" dxfId="9" priority="12">
+  <conditionalFormatting sqref="C15:L96">
+    <cfRule type="expression" dxfId="59" priority="19">
+      <formula>LEN(TRIM(C15))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:L96">
+    <cfRule type="cellIs" dxfId="58" priority="20" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:L96">
+    <cfRule type="cellIs" dxfId="57" priority="21" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:B96">
+    <cfRule type="expression" dxfId="56" priority="22">
+      <formula>LEN(TRIM(A15))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:B96">
+    <cfRule type="notContainsText" dxfId="55" priority="23" operator="notContains" text="9875894754())("/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:L13">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>LEN(TRIM(C10))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:L96 K10:L12">
-    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
+  <conditionalFormatting sqref="C10:L13">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:L96 K10:L12">
-    <cfRule type="cellIs" dxfId="7" priority="14" operator="notEqual">
+  <conditionalFormatting sqref="C10:L13">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:B96">
-    <cfRule type="expression" dxfId="6" priority="15">
-      <formula>LEN(TRIM(A15))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:B96">
-    <cfRule type="notContainsText" dxfId="5" priority="16" operator="notContains" text="9875894754())("/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:J12">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>LEN(TRIM(C10))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:J12">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:J12">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B12">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="A10:B12 A13">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>LEN(TRIM(A10))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B12">
-    <cfRule type="notContainsText" dxfId="0" priority="2" operator="notContains" text="9875894754())("/>
+  <conditionalFormatting sqref="C13 A10:B12 A13">
+    <cfRule type="notContainsText" dxfId="1" priority="5" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Sprint 6/Sprint_6 Burndown-Backlog.xlsx
+++ b/Sprint 6/Sprint_6 Burndown-Backlog.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="57">
   <si>
     <t>SPRINT BACKLOG</t>
   </si>
@@ -170,9 +170,6 @@
     <t>InternalFrame</t>
   </si>
   <si>
-    <t>Implemetação da funcionalidade nas telas internas do sistema</t>
-  </si>
-  <si>
     <t>Estudo da funcionalidade</t>
   </si>
   <si>
@@ -205,6 +202,12 @@
   </si>
   <si>
     <t>Inserção de JComboBox com dados de cidades e estados nas telas de cadastro</t>
+  </si>
+  <si>
+    <t>Implementação da funcionalidade nas telas internas do sistema</t>
+  </si>
+  <si>
+    <t>JInternalFrame</t>
   </si>
 </sst>
 </file>
@@ -627,6 +630,15 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -696,6 +708,9 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -714,61 +729,23 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="163">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="128">
     <dxf>
       <fill>
         <patternFill>
@@ -812,6 +789,58 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
@@ -880,58 +909,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
@@ -948,6 +925,58 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
@@ -1032,6 +1061,58 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
@@ -1074,32 +1155,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
@@ -1268,58 +1323,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
@@ -1352,488 +1355,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1C4587"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1C4587"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1C4587"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1C4587"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1C4587"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1C4587"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1C4587"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1C4587"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1C4587"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0">
@@ -3204,31 +2725,31 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>13.25</c:v>
+                  <c:v>37.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.59375</c:v>
+                  <c:v>32.987500000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9375</c:v>
+                  <c:v>28.275000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.28125</c:v>
+                  <c:v>23.562500000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.625</c:v>
+                  <c:v>18.850000000000009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.96875</c:v>
+                  <c:v>14.137500000000008</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3125</c:v>
+                  <c:v>9.4250000000000078</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.65625</c:v>
+                  <c:v>4.7125000000000075</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>7.1054273576010019E-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3337,31 +2858,31 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>13.25</c:v>
+                  <c:v>37.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.25</c:v>
+                  <c:v>37.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.75</c:v>
+                  <c:v>34.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.75</c:v>
+                  <c:v>32.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5</c:v>
+                  <c:v>29.950000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5</c:v>
+                  <c:v>23.750000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>9.7500000000000036</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2.7500000000000036</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3.5527136788005009E-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3389,11 +2910,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="152775304"/>
-        <c:axId val="152726712"/>
+        <c:axId val="153528128"/>
+        <c:axId val="153528520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="152775304"/>
+        <c:axId val="153528128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3474,7 +2995,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152726712"/>
+        <c:crossAx val="153528520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3482,7 +3003,1511 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152726712"/>
+        <c:axId val="153528520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>TEMPO EM HORAS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47520">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="153528128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Diogo!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25560">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Diogo!$B$3:$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>(hrs)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Terça
+18/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Quarta
+19/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Quinta
+20/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sexta
+21/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sábado
+22/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Domingo
+23/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Segunda
+24/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Terça
+25/10/2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Diogo!$B$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>13.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.59375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.28125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.96875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.65625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4415-482B-ACC6-22BD17151AFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Diogo!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25560">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Diogo!$B$3:$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>(hrs)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Terça
+18/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Quarta
+19/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Quinta
+20/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sexta
+21/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sábado
+22/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Domingo
+23/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Segunda
+24/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Terça
+25/10/2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Diogo!$B$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>13.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4415-482B-ACC6-22BD17151AFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:smooth val="0"/>
+        <c:axId val="153529304"/>
+        <c:axId val="153529696"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="153529304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>DIAS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="222222"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="153529696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="153529696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>TEMPO EM HORAS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47520">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="153529304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Izaquiel!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25560">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Izaquiel!$B$3:$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>(hrs)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Terça
+18/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Quarta
+19/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Quinta
+20/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sexta
+21/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sábado
+22/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Domingo
+23/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Segunda
+24/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Terça
+25/10/2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Izaquiel!$B$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>13.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.03125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.3125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.59375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.15625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.71875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5DC1-45E4-B87A-C4BF8E3DF284}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Izaquiel!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25560">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Izaquiel!$B$3:$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>(hrs)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Terça
+18/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Quarta
+19/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Quinta
+20/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sexta
+21/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sábado
+22/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Domingo
+23/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Segunda
+24/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Terça
+25/10/2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Izaquiel!$B$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>13.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5DC1-45E4-B87A-C4BF8E3DF284}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:smooth val="0"/>
+        <c:axId val="153530480"/>
+        <c:axId val="153530872"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="153530480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>DIAS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="222222"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="153530872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="153530872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>TEMPO EM HORAS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47520">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="153530480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ivo!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25560">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ivo!$B$3:$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>(hrs)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Terça
+18/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Quarta
+19/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Quinta
+20/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sexta
+21/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sábado
+22/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Domingo
+23/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Segunda
+24/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Terça
+25/10/2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ivo!$B$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3624999999999989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0249999999999986</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6874999999999982</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3499999999999979</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0124999999999975</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6749999999999976</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3374999999999977</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.2204460492503131E-15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1ED5-4BB2-A00B-9F8936EBC51C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ivo!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25560">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ivo!$B$3:$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>(hrs)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Terça
+18/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Quarta
+19/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Quinta
+20/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sexta
+21/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sábado
+22/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Domingo
+23/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Segunda
+24/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Terça
+25/10/2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ivo!$B$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1ED5-4BB2-A00B-9F8936EBC51C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:smooth val="0"/>
+        <c:axId val="153531656"/>
+        <c:axId val="153532048"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="153531656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>DIAS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="222222"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="153532048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="153532048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3565,1519 +4590,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152775304"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Diogo!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ideal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25560">
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Diogo!$B$3:$J$3</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>(hrs)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Terça
-18/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Quarta
-19/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Quinta
-20/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sexta
-21/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sábado
-22/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Domingo
-23/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Segunda
-24/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Terça
-25/10/2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Diogo!$B$5:$J$5</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>13.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.59375</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.9375</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.28125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.625</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.96875</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.3125</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.65625</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4415-482B-ACC6-22BD17151AFA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Diogo!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Real</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25560">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Diogo!$B$3:$J$3</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>(hrs)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Terça
-18/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Quarta
-19/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Quinta
-20/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sexta
-21/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sábado
-22/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Domingo
-23/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Segunda
-24/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Terça
-25/10/2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Diogo!$B$6:$J$6</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>13.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4415-482B-ACC6-22BD17151AFA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:smooth val="0"/>
-        <c:axId val="151939192"/>
-        <c:axId val="151939576"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="151939192"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>DIAS</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="222222"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="151939576"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="151939576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>TEMPO EM HORAS</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="47520">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="151939192"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Izaquiel!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ideal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25560">
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Izaquiel!$B$3:$J$3</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>(hrs)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Terça
-18/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Quarta
-19/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Quinta
-20/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sexta
-21/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sábado
-22/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Domingo
-23/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Segunda
-24/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Terça
-25/10/2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Izaquiel!$B$5:$J$5</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5DC1-45E4-B87A-C4BF8E3DF284}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Izaquiel!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Real</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25560">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Izaquiel!$B$3:$J$3</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>(hrs)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Terça
-18/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Quarta
-19/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Quinta
-20/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sexta
-21/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sábado
-22/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Domingo
-23/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Segunda
-24/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Terça
-25/10/2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Izaquiel!$B$6:$J$6</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5DC1-45E4-B87A-C4BF8E3DF284}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:smooth val="0"/>
-        <c:axId val="151936000"/>
-        <c:axId val="152097792"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="151936000"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>DIAS</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="222222"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="152097792"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="152097792"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>TEMPO EM HORAS</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="47520">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="151936000"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Ivo!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ideal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25560">
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Ivo!$B$3:$J$3</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>(hrs)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Terça
-18/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Quarta
-19/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Quinta
-20/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sexta
-21/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sábado
-22/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Domingo
-23/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Segunda
-24/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Terça
-25/10/2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Ivo!$B$5:$J$5</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1ED5-4BB2-A00B-9F8936EBC51C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Ivo!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Real</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25560">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Ivo!$B$3:$J$3</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>(hrs)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Terça
-18/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Quarta
-19/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Quinta
-20/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sexta
-21/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sábado
-22/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Domingo
-23/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Segunda
-24/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Terça
-25/10/2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Ivo!$B$6:$J$6</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1ED5-4BB2-A00B-9F8936EBC51C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:smooth val="0"/>
-        <c:axId val="151931336"/>
-        <c:axId val="151933184"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="151931336"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>DIAS</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="222222"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="151933184"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="151933184"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>TEMPO EM HORAS</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="47520">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="151931336"/>
+        <c:crossAx val="153531656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5559,8 +5072,8 @@
   </sheetPr>
   <dimension ref="A1:AB1048576"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5577,16 +5090,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
       <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
@@ -5611,27 +5124,27 @@
       <c r="AB1" s="4"/>
     </row>
     <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31" t="s">
+      <c r="G2" s="34"/>
+      <c r="H2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="31">
+      <c r="I2" s="34">
         <v>8</v>
       </c>
       <c r="J2" s="3"/>
@@ -5655,9 +5168,9 @@
       <c r="AB2" s="4"/>
     </row>
     <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
@@ -5670,8 +5183,8 @@
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -5693,28 +5206,34 @@
       <c r="AB3" s="4"/>
     </row>
     <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="37" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="40">
+      <c r="C4" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="25">
+        <v>3.2</v>
+      </c>
+      <c r="E4" s="43">
         <f>SUM(D4:D15)</f>
-        <v>13.25</v>
-      </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="37">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="F4" s="25">
+        <v>3.2</v>
+      </c>
+      <c r="G4" s="40">
         <f>SUM(F4:F15)</f>
-        <v>13.25</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="H4" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="67"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="33"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -5735,19 +5254,25 @@
       <c r="AB4" s="4"/>
     </row>
     <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="38"/>
+      <c r="C5" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="25">
+        <v>3.5</v>
+      </c>
+      <c r="E5" s="44"/>
+      <c r="F5" s="25">
+        <v>3.5</v>
+      </c>
+      <c r="G5" s="41"/>
       <c r="H5" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="66"/>
+      <c r="I5" s="32"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -5769,19 +5294,25 @@
       <c r="AB5" s="4"/>
     </row>
     <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="38"/>
+      <c r="C6" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="28">
+        <v>4</v>
+      </c>
+      <c r="E6" s="44"/>
+      <c r="F6" s="28">
+        <v>4</v>
+      </c>
+      <c r="G6" s="41"/>
       <c r="H6" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="66"/>
+      <c r="I6" s="32"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -5803,7 +5334,7 @@
       <c r="AB6" s="4"/>
     </row>
     <row r="7" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="35" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -5815,11 +5346,11 @@
       <c r="D7" s="29">
         <v>3.5</v>
       </c>
-      <c r="E7" s="41"/>
+      <c r="E7" s="44"/>
       <c r="F7" s="29">
         <v>3.5</v>
       </c>
-      <c r="G7" s="38"/>
+      <c r="G7" s="41"/>
       <c r="H7" s="26" t="s">
         <v>33</v>
       </c>
@@ -5843,7 +5374,7 @@
       <c r="AB7" s="4"/>
     </row>
     <row r="8" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="43"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="22" t="s">
         <v>40</v>
       </c>
@@ -5853,11 +5384,11 @@
       <c r="D8" s="20">
         <v>2</v>
       </c>
-      <c r="E8" s="41"/>
+      <c r="E8" s="44"/>
       <c r="F8" s="20">
         <v>2</v>
       </c>
-      <c r="G8" s="38"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="26" t="s">
         <v>33</v>
       </c>
@@ -5881,7 +5412,7 @@
       <c r="AB8" s="4"/>
     </row>
     <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="43"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="23" t="s">
         <v>41</v>
       </c>
@@ -5891,11 +5422,11 @@
       <c r="D9" s="20">
         <v>2.25</v>
       </c>
-      <c r="E9" s="41"/>
+      <c r="E9" s="44"/>
       <c r="F9" s="20">
         <v>2.25</v>
       </c>
-      <c r="G9" s="38"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="26" t="s">
         <v>33</v>
       </c>
@@ -5920,7 +5451,7 @@
       <c r="AB9" s="4"/>
     </row>
     <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="43"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="24" t="s">
         <v>41</v>
       </c>
@@ -5930,11 +5461,11 @@
       <c r="D10" s="20">
         <v>1</v>
       </c>
-      <c r="E10" s="41"/>
+      <c r="E10" s="44"/>
       <c r="F10" s="20">
         <v>1</v>
       </c>
-      <c r="G10" s="38"/>
+      <c r="G10" s="41"/>
       <c r="H10" s="26" t="s">
         <v>33</v>
       </c>
@@ -5959,9 +5490,9 @@
       <c r="AB10" s="4"/>
     </row>
     <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="33"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>22</v>
@@ -5969,11 +5500,11 @@
       <c r="D11" s="20">
         <v>4.5</v>
       </c>
-      <c r="E11" s="41"/>
+      <c r="E11" s="44"/>
       <c r="F11" s="20">
         <v>4.5</v>
       </c>
-      <c r="G11" s="38"/>
+      <c r="G11" s="41"/>
       <c r="H11" s="26" t="s">
         <v>33</v>
       </c>
@@ -5998,17 +5529,23 @@
       <c r="AB11" s="4"/>
     </row>
     <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="35" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="38"/>
+      <c r="C12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="20">
+        <v>3</v>
+      </c>
+      <c r="E12" s="44"/>
+      <c r="F12" s="20">
+        <v>3</v>
+      </c>
+      <c r="G12" s="41"/>
       <c r="H12" s="26" t="s">
         <v>33</v>
       </c>
@@ -6033,15 +5570,21 @@
       <c r="AB12" s="4"/>
     </row>
     <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="33"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="38"/>
+      <c r="C13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="20">
+        <v>2.75</v>
+      </c>
+      <c r="E13" s="44"/>
+      <c r="F13" s="20">
+        <v>2.75</v>
+      </c>
+      <c r="G13" s="41"/>
       <c r="H13" s="26" t="s">
         <v>33</v>
       </c>
@@ -6066,19 +5609,23 @@
       <c r="AB13" s="4"/>
     </row>
     <row r="14" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
-        <v>45</v>
+      <c r="A14" s="35" t="s">
+        <v>56</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="38"/>
+      <c r="D14" s="20">
+        <v>2</v>
+      </c>
+      <c r="E14" s="44"/>
+      <c r="F14" s="20">
+        <v>2</v>
+      </c>
+      <c r="G14" s="41"/>
       <c r="H14" s="26" t="s">
         <v>33</v>
       </c>
@@ -6103,17 +5650,21 @@
       <c r="AB14" s="4"/>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="22" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="39"/>
+      <c r="D15" s="20">
+        <v>6</v>
+      </c>
+      <c r="E15" s="45"/>
+      <c r="F15" s="20">
+        <v>6</v>
+      </c>
+      <c r="G15" s="42"/>
       <c r="H15" s="26" t="s">
         <v>33</v>
       </c>
@@ -6412,12 +5963,12 @@
     <mergeCell ref="A12:A13"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:I6">
-    <cfRule type="expression" dxfId="162" priority="2">
+    <cfRule type="expression" dxfId="127" priority="2">
       <formula>LEN(TRIM(I1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I6">
-    <cfRule type="notContainsText" dxfId="161" priority="3" operator="notContains" text="676766676ppppp"/>
+    <cfRule type="notContainsText" dxfId="126" priority="3" operator="notContains" text="676766676ppppp"/>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -6433,7 +5984,7 @@
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10:H10"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6454,20 +6005,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="45"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45" t="s">
+      <c r="A1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -6526,40 +6077,40 @@
       <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46">
+      <c r="A3" s="49">
         <v>8</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="F3" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="G3" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="H3" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="I3" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="52" t="s">
+      <c r="J3" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="47" t="s">
+      <c r="K3" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="47" t="s">
+      <c r="L3" s="50" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="7"/>
@@ -6571,18 +6122,18 @@
       <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -6597,47 +6148,47 @@
       </c>
       <c r="B5" s="12">
         <f>SUM('Sprint Backlog'!D:D)</f>
-        <v>13.25</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="C5" s="13">
         <f t="shared" ref="C5:J5" si="1">B5-$B9</f>
-        <v>11.59375</v>
+        <v>32.987500000000004</v>
       </c>
       <c r="D5" s="13">
         <f t="shared" si="1"/>
-        <v>9.9375</v>
+        <v>28.275000000000006</v>
       </c>
       <c r="E5" s="13">
         <f t="shared" si="1"/>
-        <v>8.28125</v>
+        <v>23.562500000000007</v>
       </c>
       <c r="F5" s="13">
         <f t="shared" si="1"/>
-        <v>6.625</v>
+        <v>18.850000000000009</v>
       </c>
       <c r="G5" s="13">
         <f t="shared" si="1"/>
-        <v>4.96875</v>
+        <v>14.137500000000008</v>
       </c>
       <c r="H5" s="13">
         <f t="shared" si="1"/>
-        <v>3.3125</v>
+        <v>9.4250000000000078</v>
       </c>
       <c r="I5" s="13">
         <f t="shared" si="1"/>
-        <v>1.65625</v>
+        <v>4.7125000000000075</v>
       </c>
       <c r="J5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.1054273576010019E-15</v>
       </c>
       <c r="K5" s="13">
         <f>SUM(C5:J5)</f>
-        <v>46.375</v>
+        <v>131.95000000000005</v>
       </c>
       <c r="L5" s="13">
         <f>K5/A$3</f>
-        <v>5.796875</v>
+        <v>16.493750000000006</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -6653,47 +6204,47 @@
       </c>
       <c r="B6" s="12">
         <f>B5</f>
-        <v>13.25</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="C6" s="13">
         <f t="shared" ref="C6:J6" si="2">B6-C9</f>
-        <v>13.25</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="D6" s="13">
         <f t="shared" si="2"/>
-        <v>9.75</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="E6" s="13">
         <f t="shared" si="2"/>
-        <v>7.75</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="F6" s="13">
         <f t="shared" si="2"/>
-        <v>5.5</v>
+        <v>29.950000000000003</v>
       </c>
       <c r="G6" s="13">
         <f t="shared" si="2"/>
-        <v>4.5</v>
+        <v>23.750000000000004</v>
       </c>
       <c r="H6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.7500000000000036</v>
       </c>
       <c r="I6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.7500000000000036</v>
       </c>
       <c r="J6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.5527136788005009E-15</v>
       </c>
       <c r="K6" s="13">
         <f>SUM(C6:J6)</f>
-        <v>40.75</v>
+        <v>170.3</v>
       </c>
       <c r="L6" s="13">
         <f>K6/A$3</f>
-        <v>5.09375</v>
+        <v>21.287500000000001</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -6731,18 +6282,18 @@
       <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -6757,7 +6308,7 @@
       </c>
       <c r="B9" s="16">
         <f>B5/A3</f>
-        <v>1.65625</v>
+        <v>4.7125000000000004</v>
       </c>
       <c r="C9" s="16">
         <f t="shared" ref="C9:K9" si="3">SUM(C10:C12)</f>
@@ -6777,27 +6328,27 @@
       </c>
       <c r="G9" s="16">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>6.2</v>
       </c>
       <c r="H9" s="16">
         <f t="shared" si="3"/>
-        <v>4.5</v>
+        <v>14</v>
       </c>
       <c r="I9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="K9" s="16">
         <f t="shared" si="3"/>
-        <v>13.25</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="L9" s="16">
         <f>K9/A$3</f>
-        <v>1.65625</v>
+        <v>4.7125000000000004</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -6863,7 +6414,7 @@
       </c>
       <c r="B11" s="19">
         <f>Ivo!B9</f>
-        <v>0</v>
+        <v>1.3374999999999999</v>
       </c>
       <c r="C11" s="13">
         <f>Ivo!C9</f>
@@ -6879,24 +6430,24 @@
         <v>0</v>
       </c>
       <c r="G11" s="13">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H11" s="13">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I11" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J11" s="13">
         <v>0</v>
       </c>
       <c r="K11" s="13">
         <f>SUM(C11:J11)</f>
-        <v>0</v>
+        <v>10.7</v>
       </c>
       <c r="L11" s="13">
         <f>K11/A$3</f>
-        <v>0</v>
+        <v>1.3374999999999999</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
@@ -6912,7 +6463,7 @@
       </c>
       <c r="B12" s="18">
         <f>Izaquiel!B9</f>
-        <v>0</v>
+        <v>1.71875</v>
       </c>
       <c r="C12" s="13">
         <f>Izaquiel!C9</f>
@@ -6929,24 +6480,24 @@
         <v>0</v>
       </c>
       <c r="G12" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I12" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" s="13">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="K12" s="13">
         <f>SUM(C12:J12)</f>
-        <v>0</v>
+        <v>13.75</v>
       </c>
       <c r="L12" s="13">
         <f>K12/A$3</f>
-        <v>0</v>
+        <v>1.71875</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -6979,478 +6530,478 @@
     <mergeCell ref="L3:L4"/>
   </mergeCells>
   <conditionalFormatting sqref="B10:C10 B12">
-    <cfRule type="expression" dxfId="160" priority="36">
+    <cfRule type="expression" dxfId="125" priority="36">
       <formula>LEN(TRIM(B10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="159" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="158" priority="38" operator="notEqual">
+    <cfRule type="cellIs" dxfId="123" priority="38" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10 B12">
-    <cfRule type="notContainsText" dxfId="157" priority="40" operator="notContains" text="9875894754())("/>
+    <cfRule type="notContainsText" dxfId="122" priority="40" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="156" priority="41">
+    <cfRule type="expression" dxfId="121" priority="41">
       <formula>LEN(TRIM(K5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="155" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="42" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="154" priority="43" operator="notEqual">
+    <cfRule type="cellIs" dxfId="119" priority="43" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="153" priority="44">
+    <cfRule type="expression" dxfId="118" priority="44">
       <formula>LEN(TRIM(K5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="152" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="45" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="151" priority="46" operator="notEqual">
+    <cfRule type="cellIs" dxfId="116" priority="46" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="150" priority="47">
+    <cfRule type="expression" dxfId="115" priority="47">
       <formula>LEN(TRIM(K6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="149" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="48" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="148" priority="49" operator="notEqual">
+    <cfRule type="cellIs" dxfId="113" priority="49" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="147" priority="50">
+    <cfRule type="expression" dxfId="112" priority="50">
       <formula>LEN(TRIM(K6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="146" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="51" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="145" priority="52" operator="notEqual">
+    <cfRule type="cellIs" dxfId="110" priority="52" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="144" priority="53">
+    <cfRule type="expression" dxfId="109" priority="53">
       <formula>LEN(TRIM(L6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="143" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="54" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="142" priority="55" operator="notEqual">
+    <cfRule type="cellIs" dxfId="107" priority="55" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="141" priority="56">
+    <cfRule type="expression" dxfId="106" priority="56">
       <formula>LEN(TRIM(L6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="140" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="57" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="139" priority="58" operator="notEqual">
+    <cfRule type="cellIs" dxfId="104" priority="58" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="138" priority="59">
+    <cfRule type="expression" dxfId="103" priority="59">
       <formula>LEN(TRIM(L5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="137" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="60" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="136" priority="61" operator="notEqual">
+    <cfRule type="cellIs" dxfId="101" priority="61" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="135" priority="62">
+    <cfRule type="expression" dxfId="100" priority="62">
       <formula>LEN(TRIM(L5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="134" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="63" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="133" priority="64" operator="notEqual">
+    <cfRule type="cellIs" dxfId="98" priority="64" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="132" priority="65">
+    <cfRule type="expression" dxfId="97" priority="65">
       <formula>LEN(TRIM(K10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="131" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="66" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="130" priority="67" operator="notEqual">
+    <cfRule type="cellIs" dxfId="95" priority="67" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="129" priority="68">
+    <cfRule type="expression" dxfId="94" priority="68">
       <formula>LEN(TRIM(K10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="128" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="69" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="127" priority="70" operator="notEqual">
+    <cfRule type="cellIs" dxfId="92" priority="70" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="126" priority="71">
+    <cfRule type="expression" dxfId="91" priority="71">
       <formula>LEN(TRIM(K11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="125" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="72" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="124" priority="73" operator="notEqual">
+    <cfRule type="cellIs" dxfId="89" priority="73" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="123" priority="74">
+    <cfRule type="expression" dxfId="88" priority="74">
       <formula>LEN(TRIM(K11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="122" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="75" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="121" priority="76" operator="notEqual">
+    <cfRule type="cellIs" dxfId="86" priority="76" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="120" priority="77">
+    <cfRule type="expression" dxfId="85" priority="77">
       <formula>LEN(TRIM(K12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="119" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="78" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="118" priority="79" operator="notEqual">
+    <cfRule type="cellIs" dxfId="83" priority="79" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="117" priority="80">
+    <cfRule type="expression" dxfId="82" priority="80">
       <formula>LEN(TRIM(K12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="116" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="81" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="115" priority="82" operator="notEqual">
+    <cfRule type="cellIs" dxfId="80" priority="82" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="114" priority="83">
+    <cfRule type="expression" dxfId="79" priority="83">
       <formula>LEN(TRIM(L10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="113" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="84" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="112" priority="85" operator="notEqual">
+    <cfRule type="cellIs" dxfId="77" priority="85" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="111" priority="86">
+    <cfRule type="expression" dxfId="76" priority="86">
       <formula>LEN(TRIM(L10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="110" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="87" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="109" priority="88" operator="notEqual">
+    <cfRule type="cellIs" dxfId="74" priority="88" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="expression" dxfId="108" priority="89">
+    <cfRule type="expression" dxfId="73" priority="89">
       <formula>LEN(TRIM(L11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="107" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="90" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="106" priority="91" operator="notEqual">
+    <cfRule type="cellIs" dxfId="71" priority="91" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="expression" dxfId="105" priority="92">
+    <cfRule type="expression" dxfId="70" priority="92">
       <formula>LEN(TRIM(L11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="104" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="93" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="103" priority="94" operator="notEqual">
+    <cfRule type="cellIs" dxfId="68" priority="94" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="102" priority="95">
+    <cfRule type="expression" dxfId="67" priority="95">
       <formula>LEN(TRIM(L12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="101" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="96" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="100" priority="97" operator="notEqual">
+    <cfRule type="cellIs" dxfId="65" priority="97" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="99" priority="98">
+    <cfRule type="expression" dxfId="64" priority="98">
       <formula>LEN(TRIM(L12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="98" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="99" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="97" priority="100" operator="notEqual">
+    <cfRule type="cellIs" dxfId="62" priority="100" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="96" priority="143">
+    <cfRule type="expression" dxfId="61" priority="143">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="95" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="144" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="94" priority="145" operator="notEqual">
+    <cfRule type="cellIs" dxfId="59" priority="145" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="93" priority="146">
+    <cfRule type="expression" dxfId="58" priority="146">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="92" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="147" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="91" priority="148" operator="notEqual">
+    <cfRule type="cellIs" dxfId="56" priority="148" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:J10">
-    <cfRule type="expression" dxfId="84" priority="26">
+    <cfRule type="expression" dxfId="55" priority="26">
       <formula>LEN(TRIM(I10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:J10">
-    <cfRule type="cellIs" dxfId="83" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:J10">
-    <cfRule type="cellIs" dxfId="82" priority="28" operator="notEqual">
+    <cfRule type="cellIs" dxfId="53" priority="28" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:J11">
-    <cfRule type="expression" dxfId="81" priority="20">
+    <cfRule type="expression" dxfId="52" priority="20">
       <formula>LEN(TRIM(D11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:J11">
-    <cfRule type="cellIs" dxfId="80" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:J11">
-    <cfRule type="cellIs" dxfId="79" priority="22" operator="notEqual">
+    <cfRule type="cellIs" dxfId="50" priority="22" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:J11">
-    <cfRule type="expression" dxfId="78" priority="23">
+    <cfRule type="expression" dxfId="49" priority="23">
       <formula>LEN(TRIM(D11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:J11">
-    <cfRule type="cellIs" dxfId="77" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:J11">
-    <cfRule type="cellIs" dxfId="76" priority="25" operator="notEqual">
+    <cfRule type="cellIs" dxfId="47" priority="25" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="75" priority="16">
+    <cfRule type="expression" dxfId="46" priority="16">
       <formula>LEN(TRIM(B11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="notContainsText" dxfId="74" priority="17" operator="notContains" text="9875894754())("/>
+    <cfRule type="notContainsText" dxfId="45" priority="17" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="73" priority="10">
+    <cfRule type="expression" dxfId="44" priority="10">
       <formula>LEN(TRIM(C12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="72" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="71" priority="12" operator="notEqual">
+    <cfRule type="cellIs" dxfId="42" priority="12" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="70" priority="13">
+    <cfRule type="expression" dxfId="41" priority="13">
       <formula>LEN(TRIM(C12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="69" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="68" priority="15" operator="notEqual">
+    <cfRule type="cellIs" dxfId="39" priority="15" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:J12">
-    <cfRule type="expression" dxfId="67" priority="4">
+    <cfRule type="expression" dxfId="38" priority="4">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:J12">
-    <cfRule type="cellIs" dxfId="66" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:J12">
-    <cfRule type="cellIs" dxfId="65" priority="6" operator="notEqual">
+    <cfRule type="cellIs" dxfId="36" priority="6" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:J12">
-    <cfRule type="expression" dxfId="64" priority="7">
+    <cfRule type="expression" dxfId="35" priority="7">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:J12">
-    <cfRule type="cellIs" dxfId="63" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:J12">
-    <cfRule type="cellIs" dxfId="62" priority="9" operator="notEqual">
+    <cfRule type="cellIs" dxfId="33" priority="9" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:H10">
-    <cfRule type="expression" dxfId="25" priority="1">
+    <cfRule type="expression" dxfId="32" priority="1">
       <formula>LEN(TRIM(D10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:H10">
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:H10">
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7483,20 +7034,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="45"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45" t="s">
+      <c r="A1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -7555,40 +7106,40 @@
       <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46">
+      <c r="A3" s="49">
         <v>8</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="F3" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="G3" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="H3" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="I3" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="52" t="s">
+      <c r="J3" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="47" t="s">
+      <c r="K3" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="47" t="s">
+      <c r="L3" s="50" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="7"/>
@@ -7600,18 +7151,18 @@
       <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -7760,18 +7311,18 @@
       <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -7789,43 +7340,43 @@
         <v>1.65625</v>
       </c>
       <c r="C9" s="16">
-        <f>SUM(C10:C12)</f>
+        <f t="shared" ref="C9:L9" si="3">SUM(C10:C12)</f>
         <v>0</v>
       </c>
       <c r="D9" s="16">
-        <f>SUM(D10:D12)</f>
+        <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
       <c r="E9" s="16">
-        <f>SUM(E10:E12)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F9" s="16">
-        <f>SUM(F10:F12)</f>
+        <f t="shared" si="3"/>
         <v>2.25</v>
       </c>
       <c r="G9" s="16">
-        <f>SUM(G10:G12)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H9" s="16">
-        <f>SUM(H10:H12)</f>
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
       <c r="I9" s="16">
-        <f>SUM(I10:I12)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J9" s="16">
-        <f>SUM(J10:J12)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9" s="16">
-        <f>SUM(K10:K12)</f>
+        <f t="shared" si="3"/>
         <v>13.25</v>
       </c>
       <c r="L9" s="16">
-        <f>SUM(L10:L12)</f>
+        <f t="shared" si="3"/>
         <v>1.65625</v>
       </c>
       <c r="M9" s="7"/>
@@ -7837,10 +7388,10 @@
       <c r="S9" s="7"/>
     </row>
     <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="56"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="13">
         <v>0</v>
       </c>
@@ -7874,18 +7425,18 @@
         <v>0</v>
       </c>
       <c r="M10" s="7"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
     </row>
     <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="59"/>
+      <c r="B11" s="63"/>
       <c r="C11" s="13">
         <v>0</v>
       </c>
@@ -7919,18 +7470,18 @@
         <v>1.65625</v>
       </c>
       <c r="M11" s="7"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
     </row>
     <row r="12" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="61"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="13">
         <v>0</v>
       </c>
@@ -7964,18 +7515,18 @@
         <v>0</v>
       </c>
       <c r="M12" s="7"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
     </row>
     <row r="13" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="62"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="13">
         <v>0</v>
       </c>
@@ -8010,8 +7561,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="63"/>
-      <c r="B14" s="64"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="65"/>
     </row>
     <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8034,36 +7585,36 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="N12:O12"/>
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <conditionalFormatting sqref="N10:O12 C10:L96">
-    <cfRule type="expression" dxfId="37" priority="2">
+    <cfRule type="expression" dxfId="29" priority="2">
       <formula>LEN(TRIM(C10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:L96">
-    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:L96">
-    <cfRule type="cellIs" dxfId="35" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:B12 A15:B96 A13">
-    <cfRule type="expression" dxfId="61" priority="5">
+    <cfRule type="expression" dxfId="26" priority="5">
       <formula>LEN(TRIM(A10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10:O12 C13 A10:B12 A15:B96 A13">
-    <cfRule type="notContainsText" dxfId="60" priority="6" operator="notContains" text="9875894754())("/>
+    <cfRule type="notContainsText" dxfId="25" priority="6" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -8079,8 +7630,8 @@
   <dimension ref="A1:S1048576"/>
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8094,20 +7645,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="45"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45" t="s">
+      <c r="A1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -8166,40 +7717,40 @@
       <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46">
+      <c r="A3" s="49">
         <v>8</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="F3" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="G3" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="H3" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="I3" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="52" t="s">
+      <c r="J3" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="47" t="s">
+      <c r="K3" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="47" t="s">
+      <c r="L3" s="50" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="7"/>
@@ -8211,18 +7762,18 @@
       <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -8237,35 +7788,35 @@
       </c>
       <c r="B5" s="12">
         <f>SUMIF('Sprint Backlog'!C:C,"=Izaquiel",'Sprint Backlog'!D:D)</f>
-        <v>0</v>
+        <v>13.75</v>
       </c>
       <c r="C5" s="13">
         <f t="shared" ref="C5:J5" si="1">B5-$B9</f>
-        <v>0</v>
+        <v>12.03125</v>
       </c>
       <c r="D5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10.3125</v>
       </c>
       <c r="E5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.59375</v>
       </c>
       <c r="F5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.875</v>
       </c>
       <c r="G5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.15625</v>
       </c>
       <c r="H5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.4375</v>
       </c>
       <c r="I5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.71875</v>
       </c>
       <c r="J5" s="13">
         <f t="shared" si="1"/>
@@ -8273,11 +7824,11 @@
       </c>
       <c r="K5" s="13">
         <f>SUM(C5:J5)</f>
-        <v>0</v>
+        <v>48.125</v>
       </c>
       <c r="L5" s="13">
         <f>K5/A$3</f>
-        <v>0</v>
+        <v>6.015625</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -8293,35 +7844,35 @@
       </c>
       <c r="B6" s="12">
         <f>B5</f>
-        <v>0</v>
+        <v>13.75</v>
       </c>
       <c r="C6" s="13">
         <f t="shared" ref="C6:J6" si="2">B6-C9</f>
-        <v>0</v>
+        <v>13.75</v>
       </c>
       <c r="D6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13.75</v>
       </c>
       <c r="E6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13.75</v>
       </c>
       <c r="F6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13.75</v>
       </c>
       <c r="G6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11.75</v>
       </c>
       <c r="H6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="I6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="J6" s="13">
         <f t="shared" si="2"/>
@@ -8329,11 +7880,11 @@
       </c>
       <c r="K6" s="13">
         <f>SUM(C6:J6)</f>
-        <v>0</v>
+        <v>75.25</v>
       </c>
       <c r="L6" s="13">
         <f>K6/A$3</f>
-        <v>0</v>
+        <v>9.40625</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -8371,18 +7922,18 @@
       <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -8397,7 +7948,7 @@
       </c>
       <c r="B9" s="16">
         <f>B5/A3</f>
-        <v>0</v>
+        <v>1.71875</v>
       </c>
       <c r="C9" s="16">
         <f t="shared" ref="C9:L9" si="3">SUM(C10:C30)</f>
@@ -8417,27 +7968,27 @@
       </c>
       <c r="G9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="K9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>13.75</v>
       </c>
       <c r="L9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.71875</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -8448,10 +7999,10 @@
       <c r="S9" s="7"/>
     </row>
     <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="56"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="13">
         <v>0</v>
       </c>
@@ -8493,10 +8044,10 @@
       <c r="S10" s="7"/>
     </row>
     <row r="11" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="56"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="13">
         <v>0</v>
       </c>
@@ -8538,10 +8089,10 @@
       <c r="S11" s="7"/>
     </row>
     <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="59"/>
+      <c r="B12" s="63"/>
       <c r="C12" s="13">
         <v>0</v>
       </c>
@@ -8583,10 +8134,10 @@
       <c r="S12" s="7"/>
     </row>
     <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="61"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="13">
         <v>0</v>
       </c>
@@ -8600,10 +8151,10 @@
         <v>0</v>
       </c>
       <c r="G13" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I13" s="13">
         <v>0</v>
@@ -8613,18 +8164,18 @@
       </c>
       <c r="K13" s="13">
         <f>SUM(C13:J13)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L13" s="13">
         <f>K13/A$3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="62"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="13">
         <v>0</v>
       </c>
@@ -8644,18 +8195,18 @@
         <v>0</v>
       </c>
       <c r="I14" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J14" s="13">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="K14" s="13">
         <f>SUM(C14:J14)</f>
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="L14" s="13">
         <f>K14/A$3</f>
-        <v>0</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8664,7 +8215,6 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
@@ -8684,75 +8234,76 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:L96 K10:L10">
-    <cfRule type="expression" dxfId="49" priority="17">
+    <cfRule type="expression" dxfId="24" priority="17">
       <formula>LEN(TRIM(C10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:L96 K10:L10">
-    <cfRule type="cellIs" dxfId="48" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:L96 K10:L10">
-    <cfRule type="cellIs" dxfId="47" priority="19" operator="notEqual">
+    <cfRule type="cellIs" dxfId="22" priority="19" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B96">
-    <cfRule type="expression" dxfId="46" priority="20">
+    <cfRule type="expression" dxfId="21" priority="20">
       <formula>LEN(TRIM(A15))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B96">
-    <cfRule type="notContainsText" dxfId="45" priority="21" operator="notContains" text="9875894754())("/>
+    <cfRule type="notContainsText" dxfId="20" priority="21" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:J10">
-    <cfRule type="expression" dxfId="44" priority="10">
+    <cfRule type="expression" dxfId="19" priority="10">
       <formula>LEN(TRIM(C10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:J10">
-    <cfRule type="cellIs" dxfId="43" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:J10">
-    <cfRule type="cellIs" dxfId="42" priority="12" operator="notEqual">
+    <cfRule type="cellIs" dxfId="17" priority="12" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:B10">
-    <cfRule type="expression" dxfId="41" priority="6">
+    <cfRule type="expression" dxfId="16" priority="6">
       <formula>LEN(TRIM(A10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:B10">
-    <cfRule type="notContainsText" dxfId="40" priority="7" operator="notContains" text="9875894754())("/>
+    <cfRule type="notContainsText" dxfId="15" priority="7" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:L14">
-    <cfRule type="expression" dxfId="19" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:L14">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:L14">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:B13 A14">
-    <cfRule type="expression" dxfId="13" priority="4">
+    <cfRule type="expression" dxfId="11" priority="4">
       <formula>LEN(TRIM(A11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14 A11:B13 A14">
-    <cfRule type="notContainsText" dxfId="11" priority="5" operator="notContains" text="9875894754())("/>
+    <cfRule type="notContainsText" dxfId="10" priority="5" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -8769,7 +8320,7 @@
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8783,20 +8334,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="45"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45" t="s">
+      <c r="A1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -8855,40 +8406,40 @@
       <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46">
+      <c r="A3" s="49">
         <v>8</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="F3" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="G3" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="H3" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="I3" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="52" t="s">
+      <c r="J3" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="47" t="s">
+      <c r="K3" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="47" t="s">
+      <c r="L3" s="50" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="7"/>
@@ -8900,18 +8451,18 @@
       <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -8926,47 +8477,47 @@
       </c>
       <c r="B5" s="12">
         <f>SUMIF('Sprint Backlog'!C:C,"=Ivo",'Sprint Backlog'!D:D)</f>
-        <v>0</v>
+        <v>10.7</v>
       </c>
       <c r="C5" s="13">
         <f t="shared" ref="C5:J5" si="1">B5-$B9</f>
-        <v>0</v>
+        <v>9.3624999999999989</v>
       </c>
       <c r="D5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.0249999999999986</v>
       </c>
       <c r="E5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.6874999999999982</v>
       </c>
       <c r="F5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.3499999999999979</v>
       </c>
       <c r="G5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.0124999999999975</v>
       </c>
       <c r="H5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.6749999999999976</v>
       </c>
       <c r="I5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.3374999999999977</v>
       </c>
       <c r="J5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-2.2204460492503131E-15</v>
       </c>
       <c r="K5" s="13">
         <f>SUM(C5:J5)</f>
-        <v>0</v>
+        <v>37.449999999999989</v>
       </c>
       <c r="L5" s="13">
         <f>K5/A$3</f>
-        <v>0</v>
+        <v>4.6812499999999986</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -8982,31 +8533,31 @@
       </c>
       <c r="B6" s="12">
         <f>B5</f>
-        <v>0</v>
+        <v>10.7</v>
       </c>
       <c r="C6" s="13">
         <f t="shared" ref="C6:J6" si="2">B6-C9</f>
-        <v>0</v>
+        <v>10.7</v>
       </c>
       <c r="D6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10.7</v>
       </c>
       <c r="E6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10.7</v>
       </c>
       <c r="F6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10.7</v>
       </c>
       <c r="G6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.4999999999999991</v>
       </c>
       <c r="H6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.9999999999999991</v>
       </c>
       <c r="I6" s="13">
         <f t="shared" si="2"/>
@@ -9018,11 +8569,11 @@
       </c>
       <c r="K6" s="13">
         <f>SUM(C6:J6)</f>
-        <v>0</v>
+        <v>54.3</v>
       </c>
       <c r="L6" s="13">
         <f>K6/A$3</f>
-        <v>0</v>
+        <v>6.7874999999999996</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -9060,18 +8611,18 @@
       <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -9086,7 +8637,7 @@
       </c>
       <c r="B9" s="16">
         <f>B5/A3</f>
-        <v>0</v>
+        <v>1.3374999999999999</v>
       </c>
       <c r="C9" s="16">
         <f t="shared" ref="C9:L9" si="3">SUM(C10:C30)</f>
@@ -9106,15 +8657,15 @@
       </c>
       <c r="G9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J9" s="16">
         <f t="shared" si="3"/>
@@ -9122,11 +8673,11 @@
       </c>
       <c r="K9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10.7</v>
       </c>
       <c r="L9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.3374999999999999</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -9137,10 +8688,10 @@
       <c r="S9" s="7"/>
     </row>
     <row r="10" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="56"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="13">
         <v>0</v>
       </c>
@@ -9154,24 +8705,24 @@
         <v>0</v>
       </c>
       <c r="G10" s="13">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H10" s="13">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I10" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J10" s="13">
         <v>0</v>
       </c>
       <c r="K10" s="13">
         <f>SUM(C10:J10)</f>
-        <v>0</v>
+        <v>10.7</v>
       </c>
       <c r="L10" s="13">
         <f>K10/A$3</f>
-        <v>0</v>
+        <v>1.3374999999999999</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
@@ -9182,10 +8733,10 @@
       <c r="S10" s="7"/>
     </row>
     <row r="11" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="59"/>
+      <c r="B11" s="63"/>
       <c r="C11" s="13">
         <v>0</v>
       </c>
@@ -9227,10 +8778,10 @@
       <c r="S11" s="7"/>
     </row>
     <row r="12" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="61"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="13">
         <v>0</v>
       </c>
@@ -9272,10 +8823,10 @@
       <c r="S12" s="7"/>
     </row>
     <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="62"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="13">
         <v>0</v>
       </c>
@@ -9315,8 +8866,7 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C8:L8"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -9330,56 +8880,57 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="C8:L8"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:L96">
-    <cfRule type="expression" dxfId="59" priority="19">
+    <cfRule type="expression" dxfId="9" priority="19">
       <formula>LEN(TRIM(C15))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:L96">
-    <cfRule type="cellIs" dxfId="58" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:L96">
-    <cfRule type="cellIs" dxfId="57" priority="21" operator="notEqual">
+    <cfRule type="cellIs" dxfId="7" priority="21" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B96">
-    <cfRule type="expression" dxfId="56" priority="22">
+    <cfRule type="expression" dxfId="6" priority="22">
       <formula>LEN(TRIM(A15))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B96">
-    <cfRule type="notContainsText" dxfId="55" priority="23" operator="notContains" text="9875894754())("/>
+    <cfRule type="notContainsText" dxfId="5" priority="23" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:L13">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>LEN(TRIM(C10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:L13">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:L13">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:B12 A13">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>LEN(TRIM(A10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13 A10:B12 A13">
-    <cfRule type="notContainsText" dxfId="1" priority="5" operator="notContains" text="9875894754())("/>
+    <cfRule type="notContainsText" dxfId="0" priority="5" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
